--- a/time21.xlsx
+++ b/time21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D314"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.977245286752714</v>
+        <v>3.646447596811655</v>
       </c>
       <c r="C2" t="n">
-        <v>2.097930448886224</v>
+        <v>3.767060761588927</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1206851621335103</v>
+        <v>-0.1206131647772715</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.012141498410567</v>
+        <v>3.651150041126573</v>
       </c>
       <c r="C3" t="n">
-        <v>2.03895941930968</v>
+        <v>3.675233182079784</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02681792089911328</v>
+        <v>-0.02408314095321051</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.031208864416311</v>
+        <v>3.676872978823008</v>
       </c>
       <c r="C4" t="n">
-        <v>2.104214438350451</v>
+        <v>3.827935005570268</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.07300557393414042</v>
+        <v>-0.15106202674726</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.035498541345564</v>
+        <v>3.689583914833755</v>
       </c>
       <c r="C5" t="n">
-        <v>2.070926539057747</v>
+        <v>3.806957627579099</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03542799771218386</v>
+        <v>-0.1173737127453434</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.045828059188982</v>
+        <v>3.703406160008666</v>
       </c>
       <c r="C6" t="n">
-        <v>2.116624483297877</v>
+        <v>3.753802944525701</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07079642410889475</v>
+        <v>-0.050396784517035</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.051910896260772</v>
+        <v>3.726347710551578</v>
       </c>
       <c r="C7" t="n">
-        <v>2.092656193676948</v>
+        <v>3.742512898393619</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0407452974161755</v>
+        <v>-0.01616518784204102</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.053723215536921</v>
+        <v>3.759949802951845</v>
       </c>
       <c r="C8" t="n">
-        <v>2.110715846377985</v>
+        <v>3.782594173647416</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05699263084106398</v>
+        <v>-0.02264437069557035</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.053797999414305</v>
+        <v>3.77185076552008</v>
       </c>
       <c r="C9" t="n">
-        <v>2.043144007266977</v>
+        <v>3.840535273079825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01065399214732787</v>
+        <v>-0.06868450755974465</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.061866023883195</v>
+        <v>3.798647531714532</v>
       </c>
       <c r="C10" t="n">
-        <v>2.134283596347458</v>
+        <v>3.830533170477184</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.07241757246426239</v>
+        <v>-0.0318856387626516</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.06839444702262</v>
+        <v>3.845242228636602</v>
       </c>
       <c r="C11" t="n">
-        <v>2.140294809841117</v>
+        <v>3.84858921387614</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.07190036281849688</v>
+        <v>-0.003346985239538025</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.08234082479157</v>
+        <v>3.959208267094081</v>
       </c>
       <c r="C12" t="n">
-        <v>2.128948891409299</v>
+        <v>3.834274772379267</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.04660806661772865</v>
+        <v>0.124933494714814</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.112984779028511</v>
+        <v>4.790811670211761</v>
       </c>
       <c r="C13" t="n">
-        <v>2.113300741362142</v>
+        <v>4.847943056028982</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.000315962333630182</v>
+        <v>-0.05713138581722088</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.121984085714361</v>
+        <v>4.828545112540369</v>
       </c>
       <c r="C14" t="n">
-        <v>2.127553017094648</v>
+        <v>4.934930043249648</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.005568931380286912</v>
+        <v>-0.1063849307092788</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.504287107294957</v>
+        <v>4.839956190022885</v>
       </c>
       <c r="C15" t="n">
-        <v>2.508480001260577</v>
+        <v>4.990245195687454</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.004192893965619948</v>
+        <v>-0.1502890056645683</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.522980161962228</v>
+        <v>4.870234254352506</v>
       </c>
       <c r="C16" t="n">
-        <v>2.633001493033574</v>
+        <v>4.970918940426518</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1100213310713465</v>
+        <v>-0.100684686074012</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.546475232340099</v>
+        <v>4.905057675707988</v>
       </c>
       <c r="C17" t="n">
-        <v>2.57197855710699</v>
+        <v>4.9539301666912</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02550332476689077</v>
+        <v>-0.04887249098321167</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.553095145748262</v>
+        <v>4.922489616459035</v>
       </c>
       <c r="C18" t="n">
-        <v>2.645881568073355</v>
+        <v>4.953802208129132</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.09278642232509249</v>
+        <v>-0.0313125916700967</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.555537163567035</v>
+        <v>24.9983884422061</v>
       </c>
       <c r="C19" t="n">
-        <v>2.65817688284739</v>
+        <v>25.09498871008763</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1026397192803548</v>
+        <v>-0.09660026788153075</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.556163297267811</v>
+        <v>25.05608606439954</v>
       </c>
       <c r="C20" t="n">
-        <v>2.591749738996056</v>
+        <v>25.09645511144799</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.03558644172824543</v>
+        <v>-0.04036904704844702</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.566411019815757</v>
+        <v>25.07371043957717</v>
       </c>
       <c r="C21" t="n">
-        <v>2.667026402998256</v>
+        <v>25.16155748901879</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1006153831824985</v>
+        <v>-0.08784704944161703</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.604732363564943</v>
+        <v>25.09927414495428</v>
       </c>
       <c r="C22" t="n">
-        <v>2.637170252252625</v>
+        <v>25.10226490159612</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.03243788868768194</v>
+        <v>-0.002990756641843006</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.611554060905716</v>
+        <v>25.10835590908919</v>
       </c>
       <c r="C23" t="n">
-        <v>2.654492252556948</v>
+        <v>25.18171926809597</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04293819165123258</v>
+        <v>-0.07336335900677682</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.62302794819472</v>
+        <v>25.12603912775099</v>
       </c>
       <c r="C24" t="n">
-        <v>2.646607145992678</v>
+        <v>25.16252492944236</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0235791977979587</v>
+        <v>-0.03648580169137361</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.904266193792115</v>
+        <v>25.50670125810837</v>
       </c>
       <c r="C25" t="n">
-        <v>4.013748163750733</v>
+        <v>25.55924354885426</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1094819699586176</v>
+        <v>-0.05254229074588679</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.911269067249356</v>
+        <v>25.51786834749243</v>
       </c>
       <c r="C26" t="n">
-        <v>3.981894039919277</v>
+        <v>25.53357947510546</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.07062497266992152</v>
+        <v>-0.01571112761302729</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.912927290282672</v>
+        <v>25.5469270130417</v>
       </c>
       <c r="C27" t="n">
-        <v>4.009105025282588</v>
+        <v>25.70331776463386</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.09617773499991644</v>
+        <v>-0.1563907515921557</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.922640262840894</v>
+        <v>25.58247946038709</v>
       </c>
       <c r="C28" t="n">
-        <v>4.006988611041535</v>
+        <v>25.60628738934542</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.08434834820064108</v>
+        <v>-0.02380792895833039</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.923486618090333</v>
+        <v>25.61329835794144</v>
       </c>
       <c r="C29" t="n">
-        <v>4.010741916915199</v>
+        <v>25.62263257157382</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.08725529882486605</v>
+        <v>-0.00933421363238196</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925544520057832</v>
+        <v>25.6485533550115</v>
       </c>
       <c r="C30" t="n">
-        <v>3.93448470521413</v>
+        <v>25.6534434788301</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.008940185156297797</v>
+        <v>-0.004890123818597658</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.947819836111236</v>
+        <v>25.65468374236698</v>
       </c>
       <c r="C31" t="n">
-        <v>3.955486199948562</v>
+        <v>25.68511082984964</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.00766636383732644</v>
+        <v>-0.0304270874826571</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.954860273153586</v>
+        <v>25.65998423815609</v>
       </c>
       <c r="C32" t="n">
-        <v>3.962865060417399</v>
+        <v>25.67849051377599</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.008004787263812485</v>
+        <v>-0.01850627561989882</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.973634934267064</v>
+        <v>25.66255167821048</v>
       </c>
       <c r="C33" t="n">
-        <v>4.010616148323213</v>
+        <v>25.68023641325498</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03698121405614874</v>
+        <v>-0.01768473504450441</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>13.84001048479133</v>
+        <v>25.67669726005254</v>
       </c>
       <c r="C34" t="n">
-        <v>13.98945039240822</v>
+        <v>25.70218987107401</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1494399076168875</v>
+        <v>-0.02549261102147327</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>13.84387090096401</v>
+        <v>27.81044421319794</v>
       </c>
       <c r="C35" t="n">
-        <v>13.91915928248769</v>
+        <v>27.87639138487496</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.07528838152368422</v>
+        <v>-0.06594717167701702</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.87600474318249</v>
+        <v>27.82907312887363</v>
       </c>
       <c r="C36" t="n">
-        <v>13.99582196129437</v>
+        <v>27.89265021318463</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1198172181118764</v>
+        <v>-0.06357708431100662</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.87767711444463</v>
+        <v>27.83408404989915</v>
       </c>
       <c r="C37" t="n">
-        <v>13.93643572627542</v>
+        <v>27.85789556756321</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.05875861183079145</v>
+        <v>-0.02381151766405765</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.88666785294889</v>
+        <v>27.84093476602649</v>
       </c>
       <c r="C38" t="n">
-        <v>13.90538392860956</v>
+        <v>28.00665914910883</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.01871607566067368</v>
+        <v>-0.1657243830823383</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13.90249820323117</v>
+        <v>27.86901988033159</v>
       </c>
       <c r="C39" t="n">
-        <v>13.9942453966153</v>
+        <v>27.91246495820286</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.09174719338412451</v>
+        <v>-0.04344507787127583</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>13.90966254453803</v>
+        <v>27.88236940408031</v>
       </c>
       <c r="C40" t="n">
-        <v>13.91235390664203</v>
+        <v>27.95949717309846</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.002691362103998785</v>
+        <v>-0.07712776901814067</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>13.92464330340674</v>
+        <v>27.91288529815871</v>
       </c>
       <c r="C41" t="n">
-        <v>13.94442637017966</v>
+        <v>27.95137986998802</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.01978306677292707</v>
+        <v>-0.03849457182930394</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.99021404773441</v>
+        <v>27.92466579078119</v>
       </c>
       <c r="C42" t="n">
-        <v>14.00960511288601</v>
+        <v>28.01509603178183</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01939106515159672</v>
+        <v>-0.09043024100064301</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>14.00441223463474</v>
+        <v>27.931286284577</v>
       </c>
       <c r="C43" t="n">
-        <v>14.00785599525571</v>
+        <v>27.97867294495729</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00344376062097318</v>
+        <v>-0.04738666038028683</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>18.16834945434505</v>
+        <v>28.01651508571692</v>
       </c>
       <c r="C44" t="n">
-        <v>18.23012296241909</v>
+        <v>27.95889228705101</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0617735080740367</v>
+        <v>0.05762279866590703</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>18.19001139535004</v>
+        <v>28.79544471565016</v>
       </c>
       <c r="C45" t="n">
-        <v>18.30410611793106</v>
+        <v>28.93043400342267</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1140947225810187</v>
+        <v>-0.134989287772509</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>18.19997547127728</v>
+        <v>28.82147287417463</v>
       </c>
       <c r="C46" t="n">
-        <v>18.29090448849605</v>
+        <v>28.82720632253335</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.09092901721877311</v>
+        <v>-0.005733448358718363</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>18.21441614276385</v>
+        <v>28.86028559875077</v>
       </c>
       <c r="C47" t="n">
-        <v>18.22849226427201</v>
+        <v>28.97353689100621</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.01407612150816107</v>
+        <v>-0.1132512922554412</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>18.21609432985899</v>
+        <v>28.86237087766485</v>
       </c>
       <c r="C48" t="n">
-        <v>18.29674968345942</v>
+        <v>28.91003446371163</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.08065535360043086</v>
+        <v>-0.04766358604677734</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>18.22187425955931</v>
+        <v>28.87644966261627</v>
       </c>
       <c r="C49" t="n">
-        <v>18.19503449837975</v>
+        <v>28.9326537623017</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02683976117955567</v>
+        <v>-0.05620409968542361</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>18.22789751084741</v>
+        <v>28.91031051538232</v>
       </c>
       <c r="C50" t="n">
-        <v>18.22863468239262</v>
+        <v>28.9959535084456</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.0007371715452038075</v>
+        <v>-0.08564299306327783</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>18.2346428959515</v>
+        <v>28.91380712782546</v>
       </c>
       <c r="C51" t="n">
-        <v>18.23821953438713</v>
+        <v>28.9391798776176</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.003576638435632162</v>
+        <v>-0.02537274979214033</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>18.24915646772383</v>
+        <v>28.9346072756621</v>
       </c>
       <c r="C52" t="n">
-        <v>18.25111964923607</v>
+        <v>28.98901604755472</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.001963181512238066</v>
+        <v>-0.05440877189262139</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>18.25555811687335</v>
+        <v>28.98960754284273</v>
       </c>
       <c r="C53" t="n">
-        <v>18.26530705814963</v>
+        <v>29.00091115321051</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.009748941276281897</v>
+        <v>-0.01130361036777927</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>18.26578407671677</v>
+        <v>29.02773793788204</v>
       </c>
       <c r="C54" t="n">
-        <v>18.32648341834611</v>
+        <v>29.22937656541017</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.06069934162933777</v>
+        <v>-0.2016386275281299</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20.404593079977</v>
+        <v>29.03533501910679</v>
       </c>
       <c r="C55" t="n">
-        <v>20.44412467758899</v>
+        <v>29.1436863681498</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.03953159761198677</v>
+        <v>-0.1083513490430086</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20.42433091597614</v>
+        <v>29.05071684777456</v>
       </c>
       <c r="C56" t="n">
-        <v>20.48000881960989</v>
+        <v>29.05404932880977</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.05567790363375025</v>
+        <v>-0.003332481035215551</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20.43957608789481</v>
+        <v>29.07725705560857</v>
       </c>
       <c r="C57" t="n">
-        <v>20.51948203949135</v>
+        <v>29.12042216758735</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0799059515965368</v>
+        <v>-0.04316511197877659</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20.44781110153022</v>
+        <v>29.09966800658566</v>
       </c>
       <c r="C58" t="n">
-        <v>20.54411360889945</v>
+        <v>29.16338393744383</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.09630250736923074</v>
+        <v>-0.06371593085817295</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20.4596231648447</v>
+        <v>29.11196338888255</v>
       </c>
       <c r="C59" t="n">
-        <v>20.52909822056555</v>
+        <v>29.15831626415669</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.06947505572085788</v>
+        <v>-0.04635287527413823</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20.4662172182463</v>
+        <v>29.11379493545445</v>
       </c>
       <c r="C60" t="n">
-        <v>20.52919238902665</v>
+        <v>29.16925191994495</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.06297517078035852</v>
+        <v>-0.05545698449049752</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20.48735384359778</v>
+        <v>29.14230001936983</v>
       </c>
       <c r="C61" t="n">
-        <v>20.50029760569426</v>
+        <v>29.22920950898508</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01294376209648718</v>
+        <v>-0.08690948961524825</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20.49123515077151</v>
+        <v>29.14632628458173</v>
       </c>
       <c r="C62" t="n">
-        <v>20.51112940262609</v>
+        <v>29.19690909380981</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01989425185457705</v>
+        <v>-0.05058280922808578</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20.5302111083123</v>
+        <v>29.20270193096249</v>
       </c>
       <c r="C63" t="n">
-        <v>20.54191209395998</v>
+        <v>29.17028354193572</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01170098564767841</v>
+        <v>0.0324183890267733</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>33.75812010760542</v>
+        <v>29.21081147102005</v>
       </c>
       <c r="C64" t="n">
-        <v>33.87762502357145</v>
+        <v>29.2080074846077</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.1195049159660329</v>
+        <v>0.002803986412349246</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>33.76931496324475</v>
+        <v>29.41857278702212</v>
       </c>
       <c r="C65" t="n">
-        <v>33.82175902465903</v>
+        <v>29.56797994589841</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.0524440614142776</v>
+        <v>-0.14940715887629</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>33.77230256068796</v>
+        <v>29.45076818474931</v>
       </c>
       <c r="C66" t="n">
-        <v>33.83724501444898</v>
+        <v>29.57707936088226</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.06494245376102015</v>
+        <v>-0.1263111761329476</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>33.79558043701643</v>
+        <v>29.46198411104723</v>
       </c>
       <c r="C67" t="n">
-        <v>33.87643436042321</v>
+        <v>29.55781653320216</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0808539234067851</v>
+        <v>-0.0958324221549347</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>33.82316372740593</v>
+        <v>29.46746442294119</v>
       </c>
       <c r="C68" t="n">
-        <v>33.83471059617052</v>
+        <v>29.49503510476028</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0115468687645901</v>
+        <v>-0.02757068181909617</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>33.8277045174472</v>
+        <v>29.46826762586191</v>
       </c>
       <c r="C69" t="n">
-        <v>33.89162684678934</v>
+        <v>29.5005538253287</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.06392232934214803</v>
+        <v>-0.03228619946679956</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>33.82873645289309</v>
+        <v>29.46872820425627</v>
       </c>
       <c r="C70" t="n">
-        <v>33.83011740522294</v>
+        <v>29.47541074509935</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.001380952329846252</v>
+        <v>-0.00668254084307307</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>33.83249561973778</v>
+        <v>29.48342417755697</v>
       </c>
       <c r="C71" t="n">
-        <v>33.89569280725574</v>
+        <v>29.43047453168246</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.06319718751795733</v>
+        <v>0.05294964587450579</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>33.8408575204235</v>
+        <v>29.52629111501903</v>
       </c>
       <c r="C72" t="n">
-        <v>33.87060852731014</v>
+        <v>29.5478116557766</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.02975100688663446</v>
+        <v>-0.02152054075757093</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>33.85094954209346</v>
+        <v>29.53461783617514</v>
       </c>
       <c r="C73" t="n">
-        <v>33.87415195878327</v>
+        <v>29.57579709452218</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.02320241668980572</v>
+        <v>-0.04117925834703229</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>33.87026429243862</v>
+        <v>29.54338122798691</v>
       </c>
       <c r="C74" t="n">
-        <v>33.88363899967683</v>
+        <v>29.57086687244233</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01337470723820644</v>
+        <v>-0.02748564445542101</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>33.88601448402758</v>
+        <v>29.55321553561246</v>
       </c>
       <c r="C75" t="n">
-        <v>33.90240063315112</v>
+        <v>29.57123677656792</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01638614912354086</v>
+        <v>-0.01802124095545921</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>33.88658746164612</v>
+        <v>29.88213856020995</v>
       </c>
       <c r="C76" t="n">
-        <v>33.89758588466764</v>
+        <v>30.06111043431309</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.01099842302152609</v>
+        <v>-0.1789718741031443</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>34.01278019914484</v>
+        <v>29.89253907857598</v>
       </c>
       <c r="C77" t="n">
-        <v>33.80524493716679</v>
+        <v>29.97728998948022</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2075352619780446</v>
+        <v>-0.08475091090424058</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>37.4210023316745</v>
+        <v>29.89351020163778</v>
       </c>
       <c r="C78" t="n">
-        <v>37.45383116256837</v>
+        <v>30.01502019880754</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.03282883089386956</v>
+        <v>-0.1215099971697633</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>37.42433389895187</v>
+        <v>29.89895265825998</v>
       </c>
       <c r="C79" t="n">
-        <v>37.49067711312193</v>
+        <v>29.96240517483803</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.06634321417006106</v>
+        <v>-0.06345251657805306</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>37.4398776147093</v>
+        <v>29.9596898734816</v>
       </c>
       <c r="C80" t="n">
-        <v>37.54031657366108</v>
+        <v>30.0982404841346</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1004389589517771</v>
+        <v>-0.1385506106530023</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>37.448077870877</v>
+        <v>29.96986566075684</v>
       </c>
       <c r="C81" t="n">
-        <v>37.45608644143595</v>
+        <v>29.99852290871076</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.008008570558949657</v>
+        <v>-0.02865724795391955</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>37.46100333644918</v>
+        <v>29.99061064807987</v>
       </c>
       <c r="C82" t="n">
-        <v>37.49684738853844</v>
+        <v>30.0257693052114</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.03584405208926</v>
+        <v>-0.03515865713153232</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>37.47097770067816</v>
+        <v>30.00410073098786</v>
       </c>
       <c r="C83" t="n">
-        <v>37.50500546199363</v>
+        <v>30.06337634004038</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.03402776131546403</v>
+        <v>-0.05927560905251994</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>37.47248305243691</v>
+        <v>30.00707409443527</v>
       </c>
       <c r="C84" t="n">
-        <v>37.56555312052321</v>
+        <v>30.05831476218667</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.09307006808629836</v>
+        <v>-0.05124066775140435</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>37.4752621669797</v>
+        <v>30.01402509976048</v>
       </c>
       <c r="C85" t="n">
-        <v>37.52784826317171</v>
+        <v>30.01806901871534</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.05258609619200882</v>
+        <v>-0.004043918954860004</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>37.47828001258512</v>
+        <v>30.01619822617594</v>
       </c>
       <c r="C86" t="n">
-        <v>37.54682754867294</v>
+        <v>30.07338651527383</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.06854753608782005</v>
+        <v>-0.05718828909789053</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>37.49455276959999</v>
+        <v>30.02067765407294</v>
       </c>
       <c r="C87" t="n">
-        <v>37.57629061919246</v>
+        <v>30.07719850809101</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.08173784959246433</v>
+        <v>-0.05652085401806772</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>37.500545987664</v>
+        <v>30.06592164804915</v>
       </c>
       <c r="C88" t="n">
-        <v>37.54336385979227</v>
+        <v>30.04343889755213</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.0428178721282606</v>
+        <v>0.02248275049702642</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>37.50104273877482</v>
+        <v>30.06984992300581</v>
       </c>
       <c r="C89" t="n">
-        <v>37.56378479372777</v>
+        <v>30.07200115160338</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.06274205495294893</v>
+        <v>-0.002151228597568888</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>37.53978149271901</v>
+        <v>30.23456841718806</v>
       </c>
       <c r="C90" t="n">
-        <v>37.58247346253925</v>
+        <v>30.05964484305224</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.04269196982023971</v>
+        <v>0.1749235741358213</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>38.36550578130622</v>
+        <v>32.07334668933994</v>
       </c>
       <c r="C91" t="n">
-        <v>38.49198074298837</v>
+        <v>32.11537907440047</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.126474961682149</v>
+        <v>-0.04203238506052287</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>38.36720742715111</v>
+        <v>32.09454088502057</v>
       </c>
       <c r="C92" t="n">
-        <v>38.45637950855268</v>
+        <v>32.25808411913957</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.08917208140157129</v>
+        <v>-0.1635432341189968</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>38.39836543984045</v>
+        <v>32.10002547482348</v>
       </c>
       <c r="C93" t="n">
-        <v>38.47916963402574</v>
+        <v>32.10883468475129</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.08080419418528351</v>
+        <v>-0.008809209927811423</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>38.42891528869894</v>
+        <v>32.12657032749681</v>
       </c>
       <c r="C94" t="n">
-        <v>38.48083445799113</v>
+        <v>32.18867677967506</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.05191916929219076</v>
+        <v>-0.06210645217825572</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>38.42918030712715</v>
+        <v>32.15213978337975</v>
       </c>
       <c r="C95" t="n">
-        <v>38.46485094354717</v>
+        <v>32.23630938036912</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.035670636420015</v>
+        <v>-0.08416959698936921</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.58581987644793</v>
+        <v>32.16190679950197</v>
       </c>
       <c r="C96" t="n">
-        <v>39.66836112380955</v>
+        <v>32.18701016439894</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.08254124736162538</v>
+        <v>-0.02510336489697096</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.60028622415611</v>
+        <v>32.18910403868775</v>
       </c>
       <c r="C97" t="n">
-        <v>39.65167972247227</v>
+        <v>32.22561842458958</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.05139349831615903</v>
+        <v>-0.03651438590183176</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39.60617592490278</v>
+        <v>32.20232978891006</v>
       </c>
       <c r="C98" t="n">
-        <v>39.63640727398227</v>
+        <v>32.21327105974688</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.03023134907949299</v>
+        <v>-0.01094127083681684</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39.61036918508846</v>
+        <v>32.2403234748574</v>
       </c>
       <c r="C99" t="n">
-        <v>39.64624008507023</v>
+        <v>32.2846192229752</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.03587089998176651</v>
+        <v>-0.04429574811780412</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.61069807299864</v>
+        <v>32.38032099622722</v>
       </c>
       <c r="C100" t="n">
-        <v>39.64779867316513</v>
+        <v>32.42663230235215</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.03710060016648953</v>
+        <v>-0.0463113061249345</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.61869465965785</v>
+        <v>32.3816454016808</v>
       </c>
       <c r="C101" t="n">
-        <v>39.66376889881877</v>
+        <v>32.42654938260949</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.04507423916091824</v>
+        <v>-0.0449039809286873</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.61935986868114</v>
+        <v>32.39144401997253</v>
       </c>
       <c r="C102" t="n">
-        <v>39.63465133216827</v>
+        <v>32.47588088892115</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.01529146348712374</v>
+        <v>-0.08443686894861457</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.64555028990009</v>
+        <v>32.39933930167764</v>
       </c>
       <c r="C103" t="n">
-        <v>39.71616758305778</v>
+        <v>32.5183618789673</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.07061729315769583</v>
+        <v>-0.1190225772896554</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.66077393258477</v>
+        <v>32.46512020701172</v>
       </c>
       <c r="C104" t="n">
-        <v>39.68628699355074</v>
+        <v>32.55324090493527</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.02551306096597017</v>
+        <v>-0.08812069792355715</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.66943760784555</v>
+        <v>32.46516911790474</v>
       </c>
       <c r="C105" t="n">
-        <v>39.73182661758705</v>
+        <v>32.49554817916612</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.06238900974150141</v>
+        <v>-0.03037906126138523</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.67819426131697</v>
+        <v>32.53401514176636</v>
       </c>
       <c r="C106" t="n">
-        <v>39.697766962795</v>
+        <v>32.54030686812811</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.01957270147803314</v>
+        <v>-0.00629172636174502</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.69597792698046</v>
+        <v>32.57163068671338</v>
       </c>
       <c r="C107" t="n">
-        <v>39.70979359138295</v>
+        <v>32.57514107739409</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.01381566440249316</v>
+        <v>-0.003510390680709463</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39.70490391369658</v>
+        <v>32.88737674814314</v>
       </c>
       <c r="C108" t="n">
-        <v>39.70785431807865</v>
+        <v>32.91280111925946</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.002950404382069394</v>
+        <v>-0.02542437111632267</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>42.12424608871223</v>
+        <v>32.93459770358622</v>
       </c>
       <c r="C109" t="n">
-        <v>42.20509835973984</v>
+        <v>33.03575767568321</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.08085227102760228</v>
+        <v>-0.101159972096994</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42.1261287938886</v>
+        <v>32.95035754591429</v>
       </c>
       <c r="C110" t="n">
-        <v>42.23385103987393</v>
+        <v>33.09301804631785</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1077222459853218</v>
+        <v>-0.1426605004035579</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>42.15846050838423</v>
+        <v>32.95165067672154</v>
       </c>
       <c r="C111" t="n">
-        <v>42.18034906495468</v>
+        <v>32.96913685048038</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.02188855657044542</v>
+        <v>-0.0174861737588401</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>42.16745421426565</v>
+        <v>32.96729394435886</v>
       </c>
       <c r="C112" t="n">
-        <v>42.21724155521175</v>
+        <v>33.0199429450136</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.0497873409461036</v>
+        <v>-0.05264900065473199</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>42.1677282872388</v>
+        <v>32.9957360236044</v>
       </c>
       <c r="C113" t="n">
-        <v>42.24147131494205</v>
+        <v>33.09094481150329</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.07374302770324448</v>
+        <v>-0.09520878789889053</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>42.170484971844</v>
+        <v>33.00411536660123</v>
       </c>
       <c r="C114" t="n">
-        <v>42.22022906627495</v>
+        <v>33.0651830786158</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.04974409443094885</v>
+        <v>-0.06106771201456951</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>42.17287601837035</v>
+        <v>33.01123385160828</v>
       </c>
       <c r="C115" t="n">
-        <v>42.24776158715179</v>
+        <v>33.09942776377174</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.07488556878143982</v>
+        <v>-0.08819391216346162</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>42.17437768799554</v>
+        <v>33.01264089166229</v>
       </c>
       <c r="C116" t="n">
-        <v>42.25893541967598</v>
+        <v>33.04418290786674</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.08455773168043379</v>
+        <v>-0.03154201620445463</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>42.19464038943296</v>
+        <v>33.14668344463615</v>
       </c>
       <c r="C117" t="n">
-        <v>42.2263237182642</v>
+        <v>33.0746136486993</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.03168332883124236</v>
+        <v>0.07206979593685503</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>42.20532058488454</v>
+        <v>33.19324561385542</v>
       </c>
       <c r="C118" t="n">
-        <v>42.24716807514989</v>
+        <v>33.00371065601518</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.04184749026535428</v>
+        <v>0.1895349578402445</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>42.20660463146663</v>
+        <v>34.2470176824009</v>
       </c>
       <c r="C119" t="n">
-        <v>42.24609589282932</v>
+        <v>34.40018938236971</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.03949126136268433</v>
+        <v>-0.1531716999688086</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>43.94519873968786</v>
+        <v>34.26936532228598</v>
       </c>
       <c r="C120" t="n">
-        <v>44.00592362012235</v>
+        <v>34.35135591454221</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.06072488043449198</v>
+        <v>-0.08199059225623273</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>43.96308762631907</v>
+        <v>34.28307761617335</v>
       </c>
       <c r="C121" t="n">
-        <v>44.02084099285322</v>
+        <v>34.30397449282876</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.05775336653414342</v>
+        <v>-0.02089687665540652</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>44.01129114273123</v>
+        <v>34.31529231438165</v>
       </c>
       <c r="C122" t="n">
-        <v>44.04014361286989</v>
+        <v>34.35465607708996</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.02885247013865921</v>
+        <v>-0.03936376270830522</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>44.03676790774918</v>
+        <v>34.35280209469173</v>
       </c>
       <c r="C123" t="n">
-        <v>44.11540487355018</v>
+        <v>34.39321711226361</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.0786369658010031</v>
+        <v>-0.04041501757188115</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>44.05074907474629</v>
+        <v>34.3705043461722</v>
       </c>
       <c r="C124" t="n">
-        <v>44.09579907114429</v>
+        <v>34.41489316951654</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.04504999639799934</v>
+        <v>-0.04438882334434169</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>44.05691267903112</v>
+        <v>34.42428468323905</v>
       </c>
       <c r="C125" t="n">
-        <v>44.10667036075704</v>
+        <v>34.47134572826092</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.04975768172592154</v>
+        <v>-0.04706104502187003</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>44.05973979978123</v>
+        <v>38.74045847869237</v>
       </c>
       <c r="C126" t="n">
-        <v>44.11815860427919</v>
+        <v>38.9461866341526</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.05841880449795411</v>
+        <v>-0.2057281554602213</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>44.06679695526333</v>
+        <v>38.82682745477487</v>
       </c>
       <c r="C127" t="n">
-        <v>44.0976702976465</v>
+        <v>38.91795867384098</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.03087334238317396</v>
+        <v>-0.09113121906610644</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>44.07018459206637</v>
+        <v>38.83330351055917</v>
       </c>
       <c r="C128" t="n">
-        <v>44.08096673582912</v>
+        <v>38.92876021903638</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.01078214376275355</v>
+        <v>-0.095456708477208</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>44.08049212785155</v>
+        <v>38.8650496161149</v>
       </c>
       <c r="C129" t="n">
-        <v>44.09370726091963</v>
+        <v>38.91260703043147</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.01321513306807987</v>
+        <v>-0.04755741431656446</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>44.08216182829476</v>
+        <v>38.89042431503766</v>
       </c>
       <c r="C130" t="n">
-        <v>44.10270298611626</v>
+        <v>38.95430269535116</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.02054115782149779</v>
+        <v>-0.06387838031350412</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>44.08539349516821</v>
+        <v>38.8960052130004</v>
       </c>
       <c r="C131" t="n">
-        <v>44.0858279185621</v>
+        <v>38.89655566781849</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.0004344233938908815</v>
+        <v>-0.0005504548180894631</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>44.08950826667738</v>
+        <v>39.48228636338614</v>
       </c>
       <c r="C132" t="n">
-        <v>44.09259159439704</v>
+        <v>39.52355032389517</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.003083327719657802</v>
+        <v>-0.0412639605090277</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>46.26318876360708</v>
+        <v>39.4852951374402</v>
       </c>
       <c r="C133" t="n">
-        <v>46.36140111460422</v>
+        <v>39.50556589060128</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.09821235099713732</v>
+        <v>-0.02027075316108551</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>46.28169185398306</v>
+        <v>39.48617887170157</v>
       </c>
       <c r="C134" t="n">
-        <v>46.40051610685532</v>
+        <v>39.52945559360797</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1188242528722583</v>
+        <v>-0.04327672190640186</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>46.3399619788062</v>
+        <v>39.49219918893535</v>
       </c>
       <c r="C135" t="n">
-        <v>46.36407732465974</v>
+        <v>39.68388940403814</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.02411534585353792</v>
+        <v>-0.1916902151027884</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>46.34634786044766</v>
+        <v>39.52624918414904</v>
       </c>
       <c r="C136" t="n">
-        <v>46.39202281714642</v>
+        <v>39.65677214755438</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.04567495669875399</v>
+        <v>-0.1305229634053475</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>46.38183253018531</v>
+        <v>39.53684017523374</v>
       </c>
       <c r="C137" t="n">
-        <v>46.39739976327731</v>
+        <v>39.65191109462953</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.0155672330919927</v>
+        <v>-0.1150709193957908</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>46.3905693154226</v>
+        <v>39.54539755486558</v>
       </c>
       <c r="C138" t="n">
-        <v>46.40381560571124</v>
+        <v>39.63677393232733</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.01324629028864877</v>
+        <v>-0.09137637746174931</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>48.01075625493487</v>
+        <v>39.54659390240905</v>
       </c>
       <c r="C139" t="n">
-        <v>48.13273742448024</v>
+        <v>39.63416510351007</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1219811695453714</v>
+        <v>-0.08757120110102079</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>48.02928007744046</v>
+        <v>39.5673124719319</v>
       </c>
       <c r="C140" t="n">
-        <v>48.08373032673449</v>
+        <v>39.57948679632355</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.0544502492940282</v>
+        <v>-0.01217432439165123</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>48.03818556823114</v>
+        <v>39.57473189550021</v>
       </c>
       <c r="C141" t="n">
-        <v>48.10537145361221</v>
+        <v>39.61282727476989</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.06718588538107895</v>
+        <v>-0.03809537926967721</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>48.07474063044352</v>
+        <v>39.59577234550208</v>
       </c>
       <c r="C142" t="n">
-        <v>48.08519450973915</v>
+        <v>39.61941722002136</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.01045387929563191</v>
+        <v>-0.02364487451928454</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>48.10720476100289</v>
+        <v>39.62727142143381</v>
       </c>
       <c r="C143" t="n">
-        <v>48.14698535876601</v>
+        <v>39.68096234821443</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.03978059776311937</v>
+        <v>-0.05369092678061804</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>48.14123441661213</v>
+        <v>39.6364422396021</v>
       </c>
       <c r="C144" t="n">
-        <v>48.15017330158585</v>
+        <v>39.64425530492603</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.008938884973723304</v>
+        <v>-0.007813065323929891</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>51.90264197369039</v>
+        <v>39.63883768039101</v>
       </c>
       <c r="C145" t="n">
-        <v>51.96162418243966</v>
+        <v>39.64882720744168</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.05898220874927773</v>
+        <v>-0.009989527050670688</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>51.9140096722172</v>
+        <v>39.93191750271619</v>
       </c>
       <c r="C146" t="n">
-        <v>51.98404762091328</v>
+        <v>39.68050895496965</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.07003794869608271</v>
+        <v>0.2514085477465429</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>51.95727086436067</v>
+        <v>40.24033590502795</v>
       </c>
       <c r="C147" t="n">
-        <v>51.99306103240281</v>
+        <v>40.24105535329591</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.03579016804214064</v>
+        <v>-0.0007194482679580005</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>51.97107269155509</v>
+        <v>40.28959549223732</v>
       </c>
       <c r="C148" t="n">
-        <v>52.04545597879876</v>
+        <v>40.41948231434178</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.07438328724366983</v>
+        <v>-0.12988682210446</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>51.99815371719561</v>
+        <v>40.31429908336361</v>
       </c>
       <c r="C149" t="n">
-        <v>52.00131274564836</v>
+        <v>40.3154470807085</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.003159028452749624</v>
+        <v>-0.001147997344894236</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>52.00053211209057</v>
+        <v>40.32374211698008</v>
       </c>
       <c r="C150" t="n">
-        <v>52.07031402345794</v>
+        <v>40.37088177908819</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.06978191136737166</v>
+        <v>-0.04713966210811549</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>52.01155953712649</v>
+        <v>40.32535466983223</v>
       </c>
       <c r="C151" t="n">
-        <v>52.01567092043477</v>
+        <v>40.41914349785245</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.004111383308284644</v>
+        <v>-0.09378882802021593</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>52.01449505552528</v>
+        <v>40.3387566615414</v>
       </c>
       <c r="C152" t="n">
-        <v>52.07311149789457</v>
+        <v>40.33958047863353</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.05861644236929209</v>
+        <v>-0.000823817092125978</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>52.01626666641646</v>
+        <v>40.34008863001912</v>
       </c>
       <c r="C153" t="n">
-        <v>52.03695665607411</v>
+        <v>40.34627421211686</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.02068998965765445</v>
+        <v>-0.006185582097735676</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>52.01720093831695</v>
+        <v>40.3420267327258</v>
       </c>
       <c r="C154" t="n">
-        <v>52.05559886833159</v>
+        <v>40.39100782426363</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.03839793001463931</v>
+        <v>-0.04898109153783281</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>52.03284062499218</v>
+        <v>40.39449686977238</v>
       </c>
       <c r="C155" t="n">
-        <v>52.05248616261918</v>
+        <v>40.44516498970274</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.0196455376269995</v>
+        <v>-0.05066811993036424</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>52.04008802854784</v>
+        <v>40.39630443198964</v>
       </c>
       <c r="C156" t="n">
-        <v>52.04613545134609</v>
+        <v>40.43471165921996</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.006047422798253876</v>
+        <v>-0.03840722723032286</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>52.06205734432444</v>
+        <v>40.39926593667219</v>
       </c>
       <c r="C157" t="n">
-        <v>52.07457199853334</v>
+        <v>40.45149874565911</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.01251465420889986</v>
+        <v>-0.05223280898692195</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>52.11180454441867</v>
+        <v>40.47623776097659</v>
       </c>
       <c r="C158" t="n">
-        <v>52.17983046464855</v>
+        <v>40.69440026322194</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.06802592022987852</v>
+        <v>-0.2181625022453417</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>52.15802231496863</v>
+        <v>40.48920371507646</v>
       </c>
       <c r="C159" t="n">
-        <v>52.2417770322383</v>
+        <v>40.61561148949483</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.08375471726967021</v>
+        <v>-0.126407774418368</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>52.17699392223542</v>
+        <v>40.50271777941485</v>
       </c>
       <c r="C160" t="n">
-        <v>52.26217735360579</v>
+        <v>40.61916851960714</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.08518343137036766</v>
+        <v>-0.1164507401922918</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>52.19500548731847</v>
+        <v>40.50967663429866</v>
       </c>
       <c r="C161" t="n">
-        <v>52.27683378745002</v>
+        <v>40.65466662223604</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.08182830013155495</v>
+        <v>-0.1449899879373788</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>52.22131191567949</v>
+        <v>40.52313841502233</v>
       </c>
       <c r="C162" t="n">
-        <v>52.22547137717836</v>
+        <v>40.59333060772286</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.004159461498872474</v>
+        <v>-0.07019219270052446</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>52.24533197484295</v>
+        <v>40.57761232929843</v>
       </c>
       <c r="C163" t="n">
-        <v>52.27521843032835</v>
+        <v>40.69062377473337</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.02988645548540347</v>
+        <v>-0.1130114454349425</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>52.86186235259989</v>
+        <v>40.59331867668072</v>
       </c>
       <c r="C164" t="n">
-        <v>52.94094877744827</v>
+        <v>40.66598453591175</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.07908642484837713</v>
+        <v>-0.07266585923103008</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>52.87506458279819</v>
+        <v>40.68522136793274</v>
       </c>
       <c r="C165" t="n">
-        <v>52.92310509150763</v>
+        <v>40.69346421050217</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.0480405087094411</v>
+        <v>-0.008242842569430309</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>52.87811506648811</v>
+        <v>40.72178233564349</v>
       </c>
       <c r="C166" t="n">
-        <v>52.92127433997902</v>
+        <v>40.68410061398452</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.04315927349090742</v>
+        <v>0.03768172165896999</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>52.89553665505716</v>
+        <v>44.76105957907014</v>
       </c>
       <c r="C167" t="n">
-        <v>52.96929464938117</v>
+        <v>44.76771904094294</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.07375799432400498</v>
+        <v>-0.006659461872800421</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>52.97189071237013</v>
+        <v>44.76580247554355</v>
       </c>
       <c r="C168" t="n">
-        <v>52.98280760634201</v>
+        <v>44.78380173366767</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.01091689397187423</v>
+        <v>-0.01799925812411374</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>57.31974691986243</v>
+        <v>44.77804489862769</v>
       </c>
       <c r="C169" t="n">
-        <v>57.38024892332763</v>
+        <v>44.83620217616966</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.06050200346519574</v>
+        <v>-0.05815727754196587</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>57.3579197765344</v>
+        <v>44.79127229640473</v>
       </c>
       <c r="C170" t="n">
-        <v>57.43724873549698</v>
+        <v>44.96477060134158</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.07932895896257719</v>
+        <v>-0.1734983049368424</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>57.3634328234451</v>
+        <v>44.81165618005017</v>
       </c>
       <c r="C171" t="n">
-        <v>57.37462052848063</v>
+        <v>44.87987650857466</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.01118770503552469</v>
+        <v>-0.06822032852448956</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>57.36600047451116</v>
+        <v>44.84913233714825</v>
       </c>
       <c r="C172" t="n">
-        <v>57.41261644407344</v>
+        <v>44.91461262426767</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.04661596956228209</v>
+        <v>-0.06548028711942067</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>57.37193890971684</v>
+        <v>44.85889042251691</v>
       </c>
       <c r="C173" t="n">
-        <v>57.40897689589344</v>
+        <v>44.87806279516951</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.0370379861765997</v>
+        <v>-0.01917237265259786</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>57.38070363828366</v>
+        <v>44.87087178145317</v>
       </c>
       <c r="C174" t="n">
-        <v>57.43129793692696</v>
+        <v>44.93353399952979</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.05059429864329701</v>
+        <v>-0.06266221807661765</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>57.3878509213642</v>
+        <v>44.87794776018733</v>
       </c>
       <c r="C175" t="n">
-        <v>57.42897857242595</v>
+        <v>44.92957197922522</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.04112765106174265</v>
+        <v>-0.05162421903788328</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>57.39094481308054</v>
+        <v>44.90052908104481</v>
       </c>
       <c r="C176" t="n">
-        <v>57.48561505731063</v>
+        <v>44.95543370981406</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.09467024423008752</v>
+        <v>-0.05490462876925051</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>57.3917554525123</v>
+        <v>44.91467222967689</v>
       </c>
       <c r="C177" t="n">
-        <v>57.42224145673502</v>
+        <v>44.96705029166845</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.0304860042227233</v>
+        <v>-0.05237806199156125</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>57.40387958512903</v>
+        <v>44.9160577524117</v>
       </c>
       <c r="C178" t="n">
-        <v>57.48152377980705</v>
+        <v>44.91687344568057</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.07764419467801531</v>
+        <v>-0.0008156932688621055</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>57.41682089241499</v>
+        <v>44.92753469459795</v>
       </c>
       <c r="C179" t="n">
-        <v>57.47352697948892</v>
+        <v>44.92946894229284</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.05670608707392688</v>
+        <v>-0.001934247694883595</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>57.43911439192572</v>
+        <v>44.92885644305776</v>
       </c>
       <c r="C180" t="n">
-        <v>57.47411076028968</v>
+        <v>44.96733233223686</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.03499636836396292</v>
+        <v>-0.03847588917909661</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>57.44310120757835</v>
+        <v>44.9656611504394</v>
       </c>
       <c r="C181" t="n">
-        <v>57.48729660186276</v>
+        <v>45.06124617647343</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.044195394284408</v>
+        <v>-0.09558502603402985</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>57.44928707464688</v>
+        <v>44.97272508679333</v>
       </c>
       <c r="C182" t="n">
-        <v>57.4601869959527</v>
+        <v>45.06915371290295</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.01089992130582118</v>
+        <v>-0.09642862610961345</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>57.4500948621619</v>
+        <v>44.97548201823033</v>
       </c>
       <c r="C183" t="n">
-        <v>57.46805365355101</v>
+        <v>45.01741770489484</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.0179587913891055</v>
+        <v>-0.04193568666450886</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>57.47802535294745</v>
+        <v>45.00977190714811</v>
       </c>
       <c r="C184" t="n">
-        <v>57.63690952963444</v>
+        <v>45.0414003544218</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1588841766869891</v>
+        <v>-0.03162844727368963</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>57.53096963123487</v>
+        <v>45.05337568079852</v>
       </c>
       <c r="C185" t="n">
-        <v>57.59853322712965</v>
+        <v>45.13603656407631</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.06756359589477512</v>
+        <v>-0.08266088327778931</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>57.54293945017316</v>
+        <v>45.05922566392</v>
       </c>
       <c r="C186" t="n">
-        <v>57.59537956388633</v>
+        <v>45.11447490084938</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.0524401137131747</v>
+        <v>-0.05524923692938444</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>57.54379670388334</v>
+        <v>45.10037484840075</v>
       </c>
       <c r="C187" t="n">
-        <v>57.58886470967889</v>
+        <v>45.15734787086878</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.04506800579554948</v>
+        <v>-0.05697302246803559</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>57.5505059153047</v>
+        <v>45.11022075657824</v>
       </c>
       <c r="C188" t="n">
-        <v>57.58793862762676</v>
+        <v>45.16849684491512</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.03743271232205103</v>
+        <v>-0.05827608833688203</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>57.56005212447945</v>
+        <v>45.12912607776167</v>
       </c>
       <c r="C189" t="n">
-        <v>57.6204939460793</v>
+        <v>45.15230013352516</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.06044182159984501</v>
+        <v>-0.02317405576349074</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>57.56155454223499</v>
+        <v>45.15042061880131</v>
       </c>
       <c r="C190" t="n">
-        <v>57.62136537616261</v>
+        <v>45.05726505384675</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.05981083392762798</v>
+        <v>0.09315556495456434</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>57.57028683567934</v>
+        <v>45.164887317025</v>
       </c>
       <c r="C191" t="n">
-        <v>57.63509560425911</v>
+        <v>45.16971730295099</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.06480876857976625</v>
+        <v>-0.004829985925987046</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>57.57652423442129</v>
+        <v>45.24377247231187</v>
       </c>
       <c r="C192" t="n">
-        <v>57.62943399791848</v>
+        <v>45.1636348579492</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.05290976349719045</v>
+        <v>0.08013761436267686</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>57.61117165722601</v>
+        <v>45.3461516640505</v>
       </c>
       <c r="C193" t="n">
-        <v>57.64176173770731</v>
+        <v>45.17297233331612</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.03059008048130352</v>
+        <v>0.1731793307343708</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>57.61119276854088</v>
+        <v>45.52739979558545</v>
       </c>
       <c r="C194" t="n">
-        <v>57.6131619163605</v>
+        <v>44.94980946579994</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.001969147819615102</v>
+        <v>0.5775903297855081</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>57.62160370633931</v>
+        <v>49.61504472599835</v>
       </c>
       <c r="C195" t="n">
-        <v>57.63250397729391</v>
+        <v>49.79663104233583</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.01090027095460044</v>
+        <v>-0.1815863163374871</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>57.62222620516234</v>
+        <v>49.66375229627339</v>
       </c>
       <c r="C196" t="n">
-        <v>57.63453888270122</v>
+        <v>49.79477229435408</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.01231267753887977</v>
+        <v>-0.1310199980806885</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>58.90161506500239</v>
+        <v>49.67488170431233</v>
       </c>
       <c r="C197" t="n">
-        <v>58.96568485821599</v>
+        <v>49.67524130684218</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.06406979321359785</v>
+        <v>-0.0003596025298548966</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>58.91925990527923</v>
+        <v>49.68822689668393</v>
       </c>
       <c r="C198" t="n">
-        <v>58.98157729239801</v>
+        <v>49.65949384254362</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.06231738711878165</v>
+        <v>0.0287330541403108</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>58.92336691374634</v>
+        <v>49.69918939611457</v>
       </c>
       <c r="C199" t="n">
-        <v>58.95506740473227</v>
+        <v>49.71603296382191</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.03170049098592642</v>
+        <v>-0.01684356770734041</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>58.96101384367757</v>
+        <v>49.73017966226608</v>
       </c>
       <c r="C200" t="n">
-        <v>59.02580890277118</v>
+        <v>49.81543461644147</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.06479505909361194</v>
+        <v>-0.0852549541753902</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>58.97459814871144</v>
+        <v>49.7349672547123</v>
       </c>
       <c r="C201" t="n">
-        <v>59.03104263350516</v>
+        <v>49.8095014830164</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.05644448479372244</v>
+        <v>-0.07453422830410261</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>59.03243325841938</v>
+        <v>49.77138207060623</v>
       </c>
       <c r="C202" t="n">
-        <v>59.03512055751997</v>
+        <v>49.82237182487639</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.002687299100593066</v>
+        <v>-0.05098975427016228</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>59.72617315961845</v>
+        <v>49.77275483782044</v>
       </c>
       <c r="C203" t="n">
-        <v>59.86224874322649</v>
+        <v>49.71904417226187</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.1360755836080472</v>
+        <v>0.05371066555857595</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>59.72617563750761</v>
+        <v>49.81476838931189</v>
       </c>
       <c r="C204" t="n">
-        <v>59.85708138913495</v>
+        <v>49.82087699642279</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1309057516273384</v>
+        <v>-0.006108607110903108</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>59.75006087925755</v>
+        <v>53.98413053366582</v>
       </c>
       <c r="C205" t="n">
-        <v>59.82941633406448</v>
+        <v>54.0294127889791</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.07935545480692952</v>
+        <v>-0.04528225531328189</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>59.75994777613523</v>
+        <v>53.98698603922135</v>
       </c>
       <c r="C206" t="n">
-        <v>59.77763743254423</v>
+        <v>53.99142322477151</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.01768965640899722</v>
+        <v>-0.004437185550159484</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>59.83334361572199</v>
+        <v>54.03019050431327</v>
       </c>
       <c r="C207" t="n">
-        <v>59.83868064972251</v>
+        <v>54.12285952500342</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.005337034000525875</v>
+        <v>-0.09266902069015259</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>63.33235867709252</v>
+        <v>54.03024306753939</v>
       </c>
       <c r="C208" t="n">
-        <v>63.41414588959181</v>
+        <v>54.0304303444538</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.081787212499286</v>
+        <v>-0.0001872769144100062</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>63.35964785413366</v>
+        <v>54.06926312316818</v>
       </c>
       <c r="C209" t="n">
-        <v>63.43602482952295</v>
+        <v>54.12681928400333</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.07637697538928734</v>
+        <v>-0.05755616083515491</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>63.40024291106758</v>
+        <v>54.12211917966665</v>
       </c>
       <c r="C210" t="n">
-        <v>63.44245132863118</v>
+        <v>54.16780015464802</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.04220841756360016</v>
+        <v>-0.04568097498136581</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>63.42832958343822</v>
+        <v>54.13238876888794</v>
       </c>
       <c r="C211" t="n">
-        <v>63.46920670369452</v>
+        <v>54.20184614673371</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.04087712025629742</v>
+        <v>-0.06945737784576522</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>63.45631705642165</v>
+        <v>54.13908570281794</v>
       </c>
       <c r="C212" t="n">
-        <v>63.47230438536068</v>
+        <v>54.14509184310503</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.01598732893903332</v>
+        <v>-0.006006140287091455</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>65.27803402698009</v>
+        <v>54.40681788908575</v>
       </c>
       <c r="C213" t="n">
-        <v>65.30349729871907</v>
+        <v>54.41248477467925</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.02546327173897112</v>
+        <v>-0.005666885593498705</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>65.31679921174894</v>
+        <v>54.41200443043363</v>
       </c>
       <c r="C214" t="n">
-        <v>65.32779109085706</v>
+        <v>54.48987246303943</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.0109918791081185</v>
+        <v>-0.07786803260579944</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>65.32121970301982</v>
+        <v>54.4254445896045</v>
       </c>
       <c r="C215" t="n">
-        <v>65.338704664155</v>
+        <v>54.50949889655626</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.01748496113518172</v>
+        <v>-0.08405430695175653</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>65.32378313397176</v>
+        <v>54.43047435839995</v>
       </c>
       <c r="C216" t="n">
-        <v>65.38766117314658</v>
+        <v>54.6189778021126</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.06387803917482415</v>
+        <v>-0.1885034437126549</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>65.3268452917856</v>
+        <v>54.45200319042893</v>
       </c>
       <c r="C217" t="n">
-        <v>65.35200186523514</v>
+        <v>54.46582436341876</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.02515657344953581</v>
+        <v>-0.01382117298983587</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>65.33722140682947</v>
+        <v>54.46787474685021</v>
       </c>
       <c r="C218" t="n">
-        <v>65.33903005790746</v>
+        <v>54.51388348644578</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.001808651077993773</v>
+        <v>-0.04600873959556395</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>65.34423490238298</v>
+        <v>54.49731015597155</v>
       </c>
       <c r="C219" t="n">
-        <v>65.38803574653895</v>
+        <v>54.5676566284408</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.04380084415596741</v>
+        <v>-0.07034647246925374</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>65.34812905546568</v>
+        <v>54.50039330878317</v>
       </c>
       <c r="C220" t="n">
-        <v>65.3725452607712</v>
+        <v>54.60684073850742</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.02441620530552768</v>
+        <v>-0.1064474297242555</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>65.35924015179732</v>
+        <v>54.50389650824205</v>
       </c>
       <c r="C221" t="n">
-        <v>65.43727922259325</v>
+        <v>54.62674090065741</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.0780390707959242</v>
+        <v>-0.1228443924153595</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>65.3693372404497</v>
+        <v>54.553143976169</v>
       </c>
       <c r="C222" t="n">
-        <v>65.39701208767214</v>
+        <v>54.59501192409544</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.02767484722244262</v>
+        <v>-0.04186794792643411</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>65.37260130573615</v>
+        <v>54.56352292326989</v>
       </c>
       <c r="C223" t="n">
-        <v>65.43000270717192</v>
+        <v>54.58364608399327</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.05740140143576866</v>
+        <v>-0.02012316072338649</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>65.38913549651814</v>
+        <v>55.61652252127873</v>
       </c>
       <c r="C224" t="n">
-        <v>65.4134065187709</v>
+        <v>55.75932805613783</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.02427102225276201</v>
+        <v>-0.1428055348591002</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>65.40700459311634</v>
+        <v>55.62461902787496</v>
       </c>
       <c r="C225" t="n">
-        <v>65.41631220486755</v>
+        <v>55.71689129694003</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.009307611751211198</v>
+        <v>-0.09227226906507013</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>65.43766444812103</v>
+        <v>55.63981439302537</v>
       </c>
       <c r="C226" t="n">
-        <v>65.37488555347194</v>
+        <v>55.70173070052033</v>
       </c>
       <c r="D226" t="n">
-        <v>0.06277889464908526</v>
+        <v>-0.06191630749496113</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>65.63035891206017</v>
+        <v>55.64407255570018</v>
       </c>
       <c r="C227" t="n">
-        <v>65.41419351591236</v>
+        <v>55.70271362451834</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2161653961478152</v>
+        <v>-0.05864106881816156</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>66.27299870951688</v>
+        <v>55.65801850289881</v>
       </c>
       <c r="C228" t="n">
-        <v>66.37136915903022</v>
+        <v>55.74365030653529</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.09837044951333951</v>
+        <v>-0.08563180363648115</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>66.29757988602383</v>
+        <v>55.66136893422248</v>
       </c>
       <c r="C229" t="n">
-        <v>66.35340632539709</v>
+        <v>55.78105748911426</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.05582643937326282</v>
+        <v>-0.1196885548917805</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>66.31898424082033</v>
+        <v>55.66526733004009</v>
       </c>
       <c r="C230" t="n">
-        <v>66.36240241553378</v>
+        <v>55.78401288094609</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.04341817471345166</v>
+        <v>-0.1187455509059987</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>66.34006252685101</v>
+        <v>55.66911451924658</v>
       </c>
       <c r="C231" t="n">
-        <v>66.35914869173838</v>
+        <v>55.754379772808</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.01908616488736925</v>
+        <v>-0.085265253561424</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>66.34844710041742</v>
+        <v>55.69667277239004</v>
       </c>
       <c r="C232" t="n">
-        <v>66.41493968562472</v>
+        <v>55.87390930747636</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.06649258520729973</v>
+        <v>-0.1772365350863154</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>72.20601899458499</v>
+        <v>55.69852844255066</v>
       </c>
       <c r="C233" t="n">
-        <v>72.24896181230028</v>
+        <v>55.72297814571599</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.04294281771528574</v>
+        <v>-0.02444970316533102</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>72.23172065733965</v>
+        <v>55.72897895977289</v>
       </c>
       <c r="C234" t="n">
-        <v>72.2812328181063</v>
+        <v>55.75722703348813</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.04951216076665332</v>
+        <v>-0.02824807371523974</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>72.234609441034</v>
+        <v>55.73296702639347</v>
       </c>
       <c r="C235" t="n">
-        <v>72.35195561663814</v>
+        <v>55.7513372308357</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1173461756041405</v>
+        <v>-0.01837020444222759</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>72.28763489591371</v>
+        <v>55.73969973628337</v>
       </c>
       <c r="C236" t="n">
-        <v>72.36740706861464</v>
+        <v>55.79368919184873</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.07977217270092751</v>
+        <v>-0.0539894555653575</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>72.29152582886867</v>
+        <v>55.76196102116693</v>
       </c>
       <c r="C237" t="n">
-        <v>72.31138881027626</v>
+        <v>55.83281211932874</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01986298140758436</v>
+        <v>-0.07085109816181046</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>72.31490133957382</v>
+        <v>55.78253617084573</v>
       </c>
       <c r="C238" t="n">
-        <v>72.34252691808126</v>
+        <v>55.80557532636372</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.02762557850743974</v>
+        <v>-0.02303915551799207</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>72.33731583308904</v>
+        <v>55.79703795180288</v>
       </c>
       <c r="C239" t="n">
-        <v>72.37498715400639</v>
+        <v>55.79753146360839</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.03767132091735448</v>
+        <v>-0.0004935118055158227</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>80.15726829808268</v>
+        <v>55.82572991172156</v>
       </c>
       <c r="C240" t="n">
-        <v>80.25739494708117</v>
+        <v>55.83508347956409</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1001266489984829</v>
+        <v>-0.009353567842531163</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>80.18628485724929</v>
+        <v>55.86156743190278</v>
       </c>
       <c r="C241" t="n">
-        <v>80.30152771563682</v>
+        <v>55.8846918440442</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.115242858387532</v>
+        <v>-0.02312441214141359</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>80.20623312348597</v>
+        <v>56.09529304463548</v>
       </c>
       <c r="C242" t="n">
-        <v>80.22843341757755</v>
+        <v>55.79376104766129</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.02220029409157576</v>
+        <v>0.3015319969741839</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>80.20843139887707</v>
+        <v>56.15562791675203</v>
       </c>
       <c r="C243" t="n">
-        <v>80.28328961062769</v>
+        <v>56.34225272020713</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.07485821175062313</v>
+        <v>-0.1866248034550964</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>80.23214679351446</v>
+        <v>56.17129969652706</v>
       </c>
       <c r="C244" t="n">
-        <v>80.28442609943295</v>
+        <v>56.30100960713161</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.05227930591848917</v>
+        <v>-0.1297099106045536</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>80.2670286393723</v>
+        <v>56.21703140299015</v>
       </c>
       <c r="C245" t="n">
-        <v>80.29038434590343</v>
+        <v>56.26297690551191</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.0233557065311345</v>
+        <v>-0.04594550252176077</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>80.26764060707453</v>
+        <v>56.23060822853434</v>
       </c>
       <c r="C246" t="n">
-        <v>80.31693417755181</v>
+        <v>56.24904310882336</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.04929357047728899</v>
+        <v>-0.0184348802890284</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>80.27857068248871</v>
+        <v>56.24808260992152</v>
       </c>
       <c r="C247" t="n">
-        <v>80.29225491004713</v>
+        <v>56.27366501845523</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.01368422755842857</v>
+        <v>-0.02558240853370819</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>80.28783117293227</v>
+        <v>56.28007511107128</v>
       </c>
       <c r="C248" t="n">
-        <v>80.30001372090939</v>
+        <v>56.30996632450827</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.01218254797711893</v>
+        <v>-0.02989121343698287</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>82.01015104688727</v>
+        <v>56.33830569803315</v>
       </c>
       <c r="C249" t="n">
-        <v>82.01148203585078</v>
+        <v>56.36803971953153</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.001330988963502477</v>
+        <v>-0.02973402149837767</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>82.05134419070386</v>
+        <v>60.50580689522452</v>
       </c>
       <c r="C250" t="n">
-        <v>82.07900627789446</v>
+        <v>60.64455371302914</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.02766208719060614</v>
+        <v>-0.1387468178046234</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>82.06006231895948</v>
+        <v>60.5359612768062</v>
       </c>
       <c r="C251" t="n">
-        <v>82.11570537769059</v>
+        <v>60.59713296702932</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.05564305873110698</v>
+        <v>-0.06117169022311231</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>82.08427943710512</v>
+        <v>60.54468056062707</v>
       </c>
       <c r="C252" t="n">
-        <v>82.10644386522377</v>
+        <v>60.55236800485369</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.02216442811864283</v>
+        <v>-0.007687444226618823</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>82.14288671783302</v>
+        <v>60.55039323296996</v>
       </c>
       <c r="C253" t="n">
-        <v>82.1468700394374</v>
+        <v>60.57015545193273</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.003983321604380308</v>
+        <v>-0.01976221896276797</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>85.227863044033</v>
+        <v>60.64938279091909</v>
       </c>
       <c r="C254" t="n">
-        <v>85.32054753314408</v>
+        <v>60.66893504779365</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.09268448911107896</v>
+        <v>-0.01955225687456164</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>85.260239448862</v>
+        <v>60.67522665545491</v>
       </c>
       <c r="C255" t="n">
-        <v>85.34502217175682</v>
+        <v>60.68479208922719</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.08478272289482902</v>
+        <v>-0.009565433772280585</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>85.29556970030839</v>
+        <v>62.86486933552889</v>
       </c>
       <c r="C256" t="n">
-        <v>85.39030375245611</v>
+        <v>63.01976569011487</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.09473405214771446</v>
+        <v>-0.1548963545859792</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>85.29572946747982</v>
+        <v>62.88312531411247</v>
       </c>
       <c r="C257" t="n">
-        <v>85.37079364642391</v>
+        <v>62.93707167086205</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.07506417894408912</v>
+        <v>-0.05394635674957726</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>85.30461873863911</v>
+        <v>62.90369062817729</v>
       </c>
       <c r="C258" t="n">
-        <v>85.38237230197542</v>
+        <v>62.92922513554213</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.07775356333631578</v>
+        <v>-0.02553450736483853</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>85.31581004596637</v>
+        <v>62.9293555480003</v>
       </c>
       <c r="C259" t="n">
-        <v>85.35983988540968</v>
+        <v>62.97431393912322</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.0440298394433114</v>
+        <v>-0.04495839112291833</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>85.32218464600336</v>
+        <v>62.93752677712197</v>
       </c>
       <c r="C260" t="n">
-        <v>85.36889100574329</v>
+        <v>63.04941548955201</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.04670635973992887</v>
+        <v>-0.1118887124300443</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>85.32557820129637</v>
+        <v>62.99154926069112</v>
       </c>
       <c r="C261" t="n">
-        <v>85.32993422203101</v>
+        <v>63.04358416788953</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.004356020734647359</v>
+        <v>-0.05203490719841142</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>85.37223992002016</v>
+        <v>63.01170717473334</v>
       </c>
       <c r="C262" t="n">
-        <v>85.38519340017025</v>
+        <v>63.05565455047957</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.01295348015008813</v>
+        <v>-0.0439473757462352</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>85.83666683805009</v>
+        <v>67.19488871245727</v>
       </c>
       <c r="C263" t="n">
-        <v>85.85509030374713</v>
+        <v>67.24584874451411</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.01842346569704034</v>
+        <v>-0.0509600320568353</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>85.84676714831339</v>
+        <v>67.21350953118186</v>
       </c>
       <c r="C264" t="n">
-        <v>85.87915188639842</v>
+        <v>67.22152070965011</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.03238473808502818</v>
+        <v>-0.008011178468251501</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>85.86253140041713</v>
+        <v>67.22824253221441</v>
       </c>
       <c r="C265" t="n">
-        <v>85.8844540974419</v>
+        <v>67.39905982216214</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.02192269702477745</v>
+        <v>-0.1708172899477347</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>85.88310693380907</v>
+        <v>67.23683229245133</v>
       </c>
       <c r="C266" t="n">
-        <v>85.96443883070985</v>
+        <v>67.38659922011144</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.08133189690077813</v>
+        <v>-0.1497669276601101</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>85.93404052853064</v>
+        <v>67.24611930436618</v>
       </c>
       <c r="C267" t="n">
-        <v>85.93990113464359</v>
+        <v>67.30119120180878</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.005860606112946698</v>
+        <v>-0.05507189744260188</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>88.18460438267087</v>
+        <v>67.309522104918</v>
       </c>
       <c r="C268" t="n">
-        <v>88.1928731474255</v>
+        <v>67.3718121201792</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.00826876475463223</v>
+        <v>-0.0622900152611976</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>88.22458837350229</v>
+        <v>67.33978086261149</v>
       </c>
       <c r="C269" t="n">
-        <v>88.32207390700087</v>
+        <v>67.37327223935446</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.09748553349858469</v>
+        <v>-0.03349137674297253</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>88.24218463981494</v>
+        <v>68.51614184507581</v>
       </c>
       <c r="C270" t="n">
-        <v>88.25031802260705</v>
+        <v>68.63366947735591</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.008133382792109956</v>
+        <v>-0.1175276322801011</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>88.24495783093883</v>
+        <v>68.58812630996238</v>
       </c>
       <c r="C271" t="n">
-        <v>88.2467280248475</v>
+        <v>68.60803507305963</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.001770193908669171</v>
+        <v>-0.01990876309724854</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>88.2543676817662</v>
+        <v>68.61627424128042</v>
       </c>
       <c r="C272" t="n">
-        <v>88.32031401059541</v>
+        <v>68.70850293641513</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.06594632882921303</v>
+        <v>-0.09222869513470755</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>88.25447078307272</v>
+        <v>68.62483704980153</v>
       </c>
       <c r="C273" t="n">
-        <v>88.31570132703206</v>
+        <v>68.70172398581082</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.06123054395933991</v>
+        <v>-0.07688693600928787</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>88.25800522030319</v>
+        <v>68.63124003566369</v>
       </c>
       <c r="C274" t="n">
-        <v>88.30745247634809</v>
+        <v>68.64189850162109</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.04944725604489975</v>
+        <v>-0.01065846595739117</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>88.28380141001132</v>
+        <v>68.69712818998427</v>
       </c>
       <c r="C275" t="n">
-        <v>88.32628732657523</v>
+        <v>68.71225111647132</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.04248591656390488</v>
+        <v>-0.01512292648705227</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>88.31447829214216</v>
+        <v>80.33391448717998</v>
       </c>
       <c r="C276" t="n">
-        <v>88.33577450303606</v>
+        <v>80.35846446457327</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.0212962108939081</v>
+        <v>-0.02454997739329201</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>88.31816020063249</v>
+        <v>80.36361682377097</v>
       </c>
       <c r="C277" t="n">
-        <v>88.31885254041126</v>
+        <v>80.41751828206421</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.0006923397787659269</v>
+        <v>-0.05390145829323956</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>88.431978266775</v>
+        <v>80.37621869390901</v>
       </c>
       <c r="C278" t="n">
-        <v>88.55531514404417</v>
+        <v>80.46373641571377</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1233368772691676</v>
+        <v>-0.08751772180475825</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>88.46069976394517</v>
+        <v>80.38159039715555</v>
       </c>
       <c r="C279" t="n">
-        <v>88.46848823241106</v>
+        <v>80.41506652562104</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.007788468465889764</v>
+        <v>-0.03347612846549453</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>88.47776373497217</v>
+        <v>80.39588034041061</v>
       </c>
       <c r="C280" t="n">
-        <v>88.54824563462404</v>
+        <v>80.45168247419755</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.0704818996518668</v>
+        <v>-0.05580213378694054</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>88.48899118462849</v>
+        <v>80.40054993611774</v>
       </c>
       <c r="C281" t="n">
-        <v>88.5891226503409</v>
+        <v>80.47375948723096</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.1001314657124084</v>
+        <v>-0.07320955111322291</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>88.51354015851712</v>
+        <v>80.43406466087245</v>
       </c>
       <c r="C282" t="n">
-        <v>88.60094557046398</v>
+        <v>80.51375063154693</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.08740541194686102</v>
+        <v>-0.07968597067447547</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>88.51789007219354</v>
+        <v>80.43610680604704</v>
       </c>
       <c r="C283" t="n">
-        <v>88.58606608045295</v>
+        <v>80.501290826751</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.06817600825941383</v>
+        <v>-0.06518402070396689</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>88.53759244738364</v>
+        <v>80.4583854362956</v>
       </c>
       <c r="C284" t="n">
-        <v>88.55668577380393</v>
+        <v>80.50295898778278</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.01909332642028971</v>
+        <v>-0.04457355148717568</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>88.54054983690325</v>
+        <v>80.47225185713464</v>
       </c>
       <c r="C285" t="n">
-        <v>88.54351789438131</v>
+        <v>80.50675241286731</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.002968057478057062</v>
+        <v>-0.03450055573267719</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>88.56140579399353</v>
+        <v>80.48584463552407</v>
       </c>
       <c r="C286" t="n">
-        <v>88.57484762147365</v>
+        <v>80.48861952960047</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.01344182748012202</v>
+        <v>-0.00277489407639564</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>88.56172452032718</v>
+        <v>80.60793355003196</v>
       </c>
       <c r="C287" t="n">
-        <v>88.59397089279992</v>
+        <v>80.42616489781381</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.03224637247274131</v>
+        <v>0.1817686522181532</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>88.58029699028671</v>
+        <v>80.70178862310578</v>
       </c>
       <c r="C288" t="n">
-        <v>88.59199849638715</v>
+        <v>80.85431635880421</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.01170150610043663</v>
+        <v>-0.1525277356984276</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>90.21158712952361</v>
+        <v>80.70249402424673</v>
       </c>
       <c r="C289" t="n">
-        <v>90.35176616495656</v>
+        <v>80.91123864647625</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1401790354329506</v>
+        <v>-0.2087446222295171</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>90.2240228192021</v>
+        <v>80.73034584564442</v>
       </c>
       <c r="C290" t="n">
-        <v>90.27611434095959</v>
+        <v>80.78311558085181</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.05209152175748955</v>
+        <v>-0.05276973520739148</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>90.22722934027342</v>
+        <v>80.73244895813926</v>
       </c>
       <c r="C291" t="n">
-        <v>90.26916155589022</v>
+        <v>80.74269515165817</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.0419322156167965</v>
+        <v>-0.01024619351890976</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>90.24965372565251</v>
+        <v>80.73573327835302</v>
       </c>
       <c r="C292" t="n">
-        <v>90.28417793361083</v>
+        <v>80.8647906599908</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.03452420795832722</v>
+        <v>-0.1290573816377787</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>90.25339282553334</v>
+        <v>80.75513451295546</v>
       </c>
       <c r="C293" t="n">
-        <v>90.2629875290865</v>
+        <v>80.8828750511243</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.009594703553162276</v>
+        <v>-0.1277405381688368</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>90.26398187396991</v>
+        <v>80.7554357039571</v>
       </c>
       <c r="C294" t="n">
-        <v>90.30690819109094</v>
+        <v>80.81716185257804</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.04292631712102946</v>
+        <v>-0.0617261486209344</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>90.26794718259636</v>
+        <v>80.7895409985907</v>
       </c>
       <c r="C295" t="n">
-        <v>90.31004378669085</v>
+        <v>80.88571830673234</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.04209660409449612</v>
+        <v>-0.09617730814164815</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>90.28379466407569</v>
+        <v>80.81142283772407</v>
       </c>
       <c r="C296" t="n">
-        <v>90.28435530523647</v>
+        <v>80.90089845564781</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.0005606411607885775</v>
+        <v>-0.08947561792373904</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>90.29294602553392</v>
+        <v>80.89167008902116</v>
       </c>
       <c r="C297" t="n">
-        <v>90.32024999962503</v>
+        <v>80.90136809302122</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.02730397409111163</v>
+        <v>-0.009698004000057381</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>90.3079875031364</v>
+        <v>80.89501777930772</v>
       </c>
       <c r="C298" t="n">
-        <v>90.34610075210399</v>
+        <v>80.92026935781426</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.03811324896759061</v>
+        <v>-0.02525157850654125</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>90.31137488288213</v>
+        <v>81.19313884288441</v>
       </c>
       <c r="C299" t="n">
-        <v>90.36047072213314</v>
+        <v>80.8899826413212</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.04909583925100947</v>
+        <v>0.3031562015632119</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>90.31837267355965</v>
+        <v>81.22977764217377</v>
       </c>
       <c r="C300" t="n">
-        <v>90.35974920257222</v>
+        <v>81.26831503674168</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.04137652901256672</v>
+        <v>-0.03853739456791061</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>90.32482760029539</v>
+        <v>81.23857901461813</v>
       </c>
       <c r="C301" t="n">
-        <v>90.34456024775524</v>
+        <v>81.34133038268372</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.01973264745984693</v>
+        <v>-0.1027513680655971</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>94.70065046431125</v>
+        <v>81.25525930344932</v>
       </c>
       <c r="C302" t="n">
-        <v>94.7596099085856</v>
+        <v>81.29120893656464</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.0589594442743504</v>
+        <v>-0.0359496331153224</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>94.72833371420215</v>
+        <v>81.25682293278433</v>
       </c>
       <c r="C303" t="n">
-        <v>94.84453194436198</v>
+        <v>81.3818247560374</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.1161982301598243</v>
+        <v>-0.1250018232530721</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>94.73779648975939</v>
+        <v>81.26400653375445</v>
       </c>
       <c r="C304" t="n">
-        <v>94.84577765477614</v>
+        <v>81.35488815309374</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.1079811650167528</v>
+        <v>-0.09088161933928518</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>94.74126679741401</v>
+        <v>81.31829181242894</v>
       </c>
       <c r="C305" t="n">
-        <v>94.79080835995161</v>
+        <v>81.34881995745344</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.04954156253759834</v>
+        <v>-0.03052814502450474</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>94.74413044354439</v>
+        <v>81.34706641425267</v>
       </c>
       <c r="C306" t="n">
-        <v>94.85204606845033</v>
+        <v>81.40643882427254</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.1079156249059423</v>
+        <v>-0.05937241001987559</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>94.75294716420588</v>
+        <v>81.35623611600532</v>
       </c>
       <c r="C307" t="n">
-        <v>94.78817909605155</v>
+        <v>81.42287108148179</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.03523193184567219</v>
+        <v>-0.0666349654764673</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>94.76364548967584</v>
+        <v>81.37371313288692</v>
       </c>
       <c r="C308" t="n">
-        <v>94.83585998266835</v>
+        <v>81.39224932095034</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.07221449299251503</v>
+        <v>-0.01853618806342183</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>94.76412911791405</v>
+        <v>81.38035323226771</v>
       </c>
       <c r="C309" t="n">
-        <v>94.85191994367918</v>
+        <v>81.41591737259709</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.08779082576512565</v>
+        <v>-0.03556414032938449</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>94.77673378594196</v>
+        <v>81.38102243688419</v>
       </c>
       <c r="C310" t="n">
-        <v>94.78665057847191</v>
+        <v>81.41566057316525</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.009916792529949703</v>
+        <v>-0.03463813628106038</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>94.78272326353732</v>
+        <v>81.42021646662738</v>
       </c>
       <c r="C311" t="n">
-        <v>94.85060288688432</v>
+        <v>81.26408679926787</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.06787962334699671</v>
+        <v>0.1561296673595081</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>94.78396248707963</v>
+        <v>84.65156031412056</v>
       </c>
       <c r="C312" t="n">
-        <v>94.84084973091058</v>
+        <v>84.74391131990005</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.05688724383094268</v>
+        <v>-0.0923510057794914</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>94.79995977912009</v>
+        <v>84.65168058426208</v>
       </c>
       <c r="C313" t="n">
-        <v>94.83287479796148</v>
+        <v>84.67227916351814</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.03291501884139336</v>
+        <v>-0.02059857925605968</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,2057 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>94.80840362554937</v>
+        <v>84.65257419187779</v>
       </c>
       <c r="C314" t="n">
-        <v>94.83850265376707</v>
+        <v>84.71589207519938</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.03009902821769117</v>
+        <v>-0.06331788332158794</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>84.67259804942462</v>
+      </c>
+      <c r="C315" t="n">
+        <v>84.75102567311809</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-0.07842762369347156</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>84.67460387918912</v>
+      </c>
+      <c r="C316" t="n">
+        <v>84.70283880661808</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-0.02823492742895439</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>84.67820213813091</v>
+      </c>
+      <c r="C317" t="n">
+        <v>84.77566370188693</v>
+      </c>
+      <c r="D317" t="n">
+        <v>-0.09746156375601345</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>84.69748339995951</v>
+      </c>
+      <c r="C318" t="n">
+        <v>84.78200355340529</v>
+      </c>
+      <c r="D318" t="n">
+        <v>-0.08452015344578001</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>84.70958402277559</v>
+      </c>
+      <c r="C319" t="n">
+        <v>84.84926715385592</v>
+      </c>
+      <c r="D319" t="n">
+        <v>-0.1396831310803321</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>84.71008052121174</v>
+      </c>
+      <c r="C320" t="n">
+        <v>84.80898863664795</v>
+      </c>
+      <c r="D320" t="n">
+        <v>-0.0989081154362168</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>84.71717911734828</v>
+      </c>
+      <c r="C321" t="n">
+        <v>84.84552234823948</v>
+      </c>
+      <c r="D321" t="n">
+        <v>-0.128343230891204</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>84.72229221623638</v>
+      </c>
+      <c r="C322" t="n">
+        <v>84.75836632532582</v>
+      </c>
+      <c r="D322" t="n">
+        <v>-0.03607410908944075</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>84.80276951593147</v>
+      </c>
+      <c r="C323" t="n">
+        <v>84.82930051014479</v>
+      </c>
+      <c r="D323" t="n">
+        <v>-0.02653099421331717</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>86.33923439007415</v>
+      </c>
+      <c r="C324" t="n">
+        <v>86.39258410098927</v>
+      </c>
+      <c r="D324" t="n">
+        <v>-0.0533497109151142</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>86.34729644102845</v>
+      </c>
+      <c r="C325" t="n">
+        <v>86.47093788870829</v>
+      </c>
+      <c r="D325" t="n">
+        <v>-0.1236414476798444</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>86.36071865700688</v>
+      </c>
+      <c r="C326" t="n">
+        <v>86.42052494929499</v>
+      </c>
+      <c r="D326" t="n">
+        <v>-0.0598062922881013</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>86.38016950276683</v>
+      </c>
+      <c r="C327" t="n">
+        <v>86.45564481171969</v>
+      </c>
+      <c r="D327" t="n">
+        <v>-0.07547530895286059</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>86.38537833858361</v>
+      </c>
+      <c r="C328" t="n">
+        <v>86.51717944385855</v>
+      </c>
+      <c r="D328" t="n">
+        <v>-0.1318011052749455</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>86.39057234167754</v>
+      </c>
+      <c r="C329" t="n">
+        <v>86.4749205346788</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-0.08434819300126151</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>86.40944320530389</v>
+      </c>
+      <c r="C330" t="n">
+        <v>86.44304472404856</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-0.03360151874467476</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>86.45272846078528</v>
+      </c>
+      <c r="C331" t="n">
+        <v>86.51668034760425</v>
+      </c>
+      <c r="D331" t="n">
+        <v>-0.06395188681896968</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>86.47210714730932</v>
+      </c>
+      <c r="C332" t="n">
+        <v>86.51959783655965</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-0.04749068925033839</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>86.51793056656888</v>
+      </c>
+      <c r="C333" t="n">
+        <v>86.54182241526824</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-0.023891848699364</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>88.19549162187613</v>
+      </c>
+      <c r="C334" t="n">
+        <v>88.38625984917861</v>
+      </c>
+      <c r="D334" t="n">
+        <v>-0.1907682273024847</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>88.19878444283484</v>
+      </c>
+      <c r="C335" t="n">
+        <v>88.32444868549624</v>
+      </c>
+      <c r="D335" t="n">
+        <v>-0.1256642426614007</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>88.21861865804607</v>
+      </c>
+      <c r="C336" t="n">
+        <v>88.40319554888811</v>
+      </c>
+      <c r="D336" t="n">
+        <v>-0.1845768908420382</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>88.23077965373405</v>
+      </c>
+      <c r="C337" t="n">
+        <v>88.24423440327705</v>
+      </c>
+      <c r="D337" t="n">
+        <v>-0.0134547495430013</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>88.23608081190613</v>
+      </c>
+      <c r="C338" t="n">
+        <v>88.36772724387279</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-0.1316464319666579</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>88.27962323558089</v>
+      </c>
+      <c r="C339" t="n">
+        <v>88.30926062231144</v>
+      </c>
+      <c r="D339" t="n">
+        <v>-0.02963738673055616</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>88.31657514822481</v>
+      </c>
+      <c r="C340" t="n">
+        <v>88.32887589758299</v>
+      </c>
+      <c r="D340" t="n">
+        <v>-0.01230074935817527</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>88.32109069469711</v>
+      </c>
+      <c r="C341" t="n">
+        <v>88.33327538788782</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-0.01218469319071858</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>88.49145081004841</v>
+      </c>
+      <c r="C342" t="n">
+        <v>88.56843383305844</v>
+      </c>
+      <c r="D342" t="n">
+        <v>-0.07698302301002968</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>88.49723800381203</v>
+      </c>
+      <c r="C343" t="n">
+        <v>88.5908911513872</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.09365314757516785</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>88.49956331978836</v>
+      </c>
+      <c r="C344" t="n">
+        <v>88.6331396508324</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-0.1335763310440399</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>88.50106472884468</v>
+      </c>
+      <c r="C345" t="n">
+        <v>88.52576371441232</v>
+      </c>
+      <c r="D345" t="n">
+        <v>-0.02469898556763894</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>88.52707047429314</v>
+      </c>
+      <c r="C346" t="n">
+        <v>88.62753931322952</v>
+      </c>
+      <c r="D346" t="n">
+        <v>-0.1004688389363793</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>88.54469472698926</v>
+      </c>
+      <c r="C347" t="n">
+        <v>88.62882125092216</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-0.08412652393289477</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>88.56728932189037</v>
+      </c>
+      <c r="C348" t="n">
+        <v>88.59262872274458</v>
+      </c>
+      <c r="D348" t="n">
+        <v>-0.02533940085420738</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>88.58118347223545</v>
+      </c>
+      <c r="C349" t="n">
+        <v>88.58208750507887</v>
+      </c>
+      <c r="D349" t="n">
+        <v>-0.0009040328434224421</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>88.60820109722432</v>
+      </c>
+      <c r="C350" t="n">
+        <v>88.64268848917094</v>
+      </c>
+      <c r="D350" t="n">
+        <v>-0.03448739194661243</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>88.61342816888826</v>
+      </c>
+      <c r="C351" t="n">
+        <v>88.65836472950038</v>
+      </c>
+      <c r="D351" t="n">
+        <v>-0.04493656061211482</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>88.63378133024446</v>
+      </c>
+      <c r="C352" t="n">
+        <v>88.69477493999212</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-0.06099360974765489</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>88.66446940710037</v>
+      </c>
+      <c r="C353" t="n">
+        <v>88.69434392391308</v>
+      </c>
+      <c r="D353" t="n">
+        <v>-0.02987451681271125</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>88.68987569011205</v>
+      </c>
+      <c r="C354" t="n">
+        <v>88.5821721160799</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.1077035740321435</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>88.97354714948899</v>
+      </c>
+      <c r="C355" t="n">
+        <v>88.51723528528952</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.4563118641994777</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>89.2211647708267</v>
+      </c>
+      <c r="C356" t="n">
+        <v>89.27609796568169</v>
+      </c>
+      <c r="D356" t="n">
+        <v>-0.05493319485498205</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>89.24263400823791</v>
+      </c>
+      <c r="C357" t="n">
+        <v>89.34334732240745</v>
+      </c>
+      <c r="D357" t="n">
+        <v>-0.1007133141695391</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>89.30521592702001</v>
+      </c>
+      <c r="C358" t="n">
+        <v>89.42829203456419</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-0.1230761075441791</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>89.32888721738519</v>
+      </c>
+      <c r="C359" t="n">
+        <v>89.42727288147357</v>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.0983856640883829</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>89.33996243004479</v>
+      </c>
+      <c r="C360" t="n">
+        <v>89.432913672103</v>
+      </c>
+      <c r="D360" t="n">
+        <v>-0.09295124205820571</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>89.34164087995555</v>
+      </c>
+      <c r="C361" t="n">
+        <v>89.36694086187137</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-0.02529998191582195</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>89.3424427275088</v>
+      </c>
+      <c r="C362" t="n">
+        <v>89.40458857301576</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.06214584550696145</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>89.35370855559168</v>
+      </c>
+      <c r="C363" t="n">
+        <v>89.4032194163987</v>
+      </c>
+      <c r="D363" t="n">
+        <v>-0.04951086080701828</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>89.36539344025159</v>
+      </c>
+      <c r="C364" t="n">
+        <v>89.4247242275687</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.0593307873171085</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>89.38056736461242</v>
+      </c>
+      <c r="C365" t="n">
+        <v>89.43361461856597</v>
+      </c>
+      <c r="D365" t="n">
+        <v>-0.05304725395355092</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>89.3835319834624</v>
+      </c>
+      <c r="C366" t="n">
+        <v>89.39910384088174</v>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.01557185741933154</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>89.39444122150846</v>
+      </c>
+      <c r="C367" t="n">
+        <v>89.40857695541342</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-0.01413573390496481</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>89.56463315140961</v>
+      </c>
+      <c r="C368" t="n">
+        <v>89.42638054918355</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.1382526022260606</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>90.44822138440615</v>
+      </c>
+      <c r="C369" t="n">
+        <v>90.65879945155986</v>
+      </c>
+      <c r="D369" t="n">
+        <v>-0.2105780671537048</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>90.45918884572104</v>
+      </c>
+      <c r="C370" t="n">
+        <v>90.4993809506673</v>
+      </c>
+      <c r="D370" t="n">
+        <v>-0.04019210494625725</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>90.47004919497394</v>
+      </c>
+      <c r="C371" t="n">
+        <v>90.62811946785099</v>
+      </c>
+      <c r="D371" t="n">
+        <v>-0.1580702728770547</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>90.50545044875911</v>
+      </c>
+      <c r="C372" t="n">
+        <v>90.57127981153727</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-0.06582936277816032</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>90.51480750754459</v>
+      </c>
+      <c r="C373" t="n">
+        <v>90.65916441678554</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.1443569092409547</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>90.52009426300384</v>
+      </c>
+      <c r="C374" t="n">
+        <v>90.60613041600797</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-0.08603615300413026</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>90.52604362301176</v>
+      </c>
+      <c r="C375" t="n">
+        <v>90.61176574630584</v>
+      </c>
+      <c r="D375" t="n">
+        <v>-0.08572212329407591</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>90.5651556772529</v>
+      </c>
+      <c r="C376" t="n">
+        <v>90.63633329954956</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.07117762229665914</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>90.58842679217737</v>
+      </c>
+      <c r="C377" t="n">
+        <v>90.62224385691981</v>
+      </c>
+      <c r="D377" t="n">
+        <v>-0.03381706474243629</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>90.61283293773488</v>
+      </c>
+      <c r="C378" t="n">
+        <v>90.64575617706845</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-0.03292323933357011</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>90.61900927887611</v>
+      </c>
+      <c r="C379" t="n">
+        <v>90.62527487633207</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-0.006265597455964667</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>90.61987092723685</v>
+      </c>
+      <c r="C380" t="n">
+        <v>90.645429038781</v>
+      </c>
+      <c r="D380" t="n">
+        <v>-0.02555811154415721</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>90.78818781179795</v>
+      </c>
+      <c r="C381" t="n">
+        <v>90.64268923021633</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.1454985815816201</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>92.26677113311213</v>
+      </c>
+      <c r="C382" t="n">
+        <v>92.4057377874839</v>
+      </c>
+      <c r="D382" t="n">
+        <v>-0.1389666543717709</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>92.33119723158092</v>
+      </c>
+      <c r="C383" t="n">
+        <v>92.46792870060419</v>
+      </c>
+      <c r="D383" t="n">
+        <v>-0.1367314690232746</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>92.40824742667711</v>
+      </c>
+      <c r="C384" t="n">
+        <v>92.45069365947894</v>
+      </c>
+      <c r="D384" t="n">
+        <v>-0.04244623280183646</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>92.41357561672683</v>
+      </c>
+      <c r="C385" t="n">
+        <v>92.48483512590309</v>
+      </c>
+      <c r="D385" t="n">
+        <v>-0.07125950917625801</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>92.41757964592192</v>
+      </c>
+      <c r="C386" t="n">
+        <v>92.46617352603822</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-0.04859388011630017</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>92.43149254079964</v>
+      </c>
+      <c r="C387" t="n">
+        <v>92.43512797345419</v>
+      </c>
+      <c r="D387" t="n">
+        <v>-0.003635432654547799</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>92.43910896274653</v>
+      </c>
+      <c r="C388" t="n">
+        <v>92.45495374851652</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.01584478576998549</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>95.29478558601349</v>
+      </c>
+      <c r="C389" t="n">
+        <v>95.37724367769553</v>
+      </c>
+      <c r="D389" t="n">
+        <v>-0.08245809168204232</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>95.3014168022729</v>
+      </c>
+      <c r="C390" t="n">
+        <v>95.43600339461459</v>
+      </c>
+      <c r="D390" t="n">
+        <v>-0.1345865923416909</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>95.31335964346761</v>
+      </c>
+      <c r="C391" t="n">
+        <v>95.47476857670208</v>
+      </c>
+      <c r="D391" t="n">
+        <v>-0.161408933234469</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>95.32257623469367</v>
+      </c>
+      <c r="C392" t="n">
+        <v>95.49696167943885</v>
+      </c>
+      <c r="D392" t="n">
+        <v>-0.1743854447451838</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>95.32418794888861</v>
+      </c>
+      <c r="C393" t="n">
+        <v>95.32527907898336</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-0.001091130094749815</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>95.34701316558269</v>
+      </c>
+      <c r="C394" t="n">
+        <v>95.46169991237863</v>
+      </c>
+      <c r="D394" t="n">
+        <v>-0.1146867467959396</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>95.3627768233938</v>
+      </c>
+      <c r="C395" t="n">
+        <v>95.48160980318251</v>
+      </c>
+      <c r="D395" t="n">
+        <v>-0.1188329797887064</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>95.36425944382609</v>
+      </c>
+      <c r="C396" t="n">
+        <v>95.51322585546977</v>
+      </c>
+      <c r="D396" t="n">
+        <v>-0.1489664116436842</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>95.36759792882255</v>
+      </c>
+      <c r="C397" t="n">
+        <v>95.39832091740426</v>
+      </c>
+      <c r="D397" t="n">
+        <v>-0.03072298858171507</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>95.36797316772433</v>
+      </c>
+      <c r="C398" t="n">
+        <v>95.49907652708639</v>
+      </c>
+      <c r="D398" t="n">
+        <v>-0.1311033593620579</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>95.3848705025259</v>
+      </c>
+      <c r="C399" t="n">
+        <v>95.46374044336957</v>
+      </c>
+      <c r="D399" t="n">
+        <v>-0.07886994084367416</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>95.41410941051559</v>
+      </c>
+      <c r="C400" t="n">
+        <v>95.4562345980942</v>
+      </c>
+      <c r="D400" t="n">
+        <v>-0.04212518757860551</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>95.45185728489783</v>
+      </c>
+      <c r="C401" t="n">
+        <v>95.48955555336642</v>
+      </c>
+      <c r="D401" t="n">
+        <v>-0.03769826846858848</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>95.58464911737624</v>
+      </c>
+      <c r="C402" t="n">
+        <v>95.38564996385273</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.1989991535235163</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>95.88410503066045</v>
+      </c>
+      <c r="C403" t="n">
+        <v>95.97978040803542</v>
+      </c>
+      <c r="D403" t="n">
+        <v>-0.09567537737497389</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>95.91058695060055</v>
+      </c>
+      <c r="C404" t="n">
+        <v>96.08434286225294</v>
+      </c>
+      <c r="D404" t="n">
+        <v>-0.1737559116523926</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>95.93812724237178</v>
+      </c>
+      <c r="C405" t="n">
+        <v>95.98896165503719</v>
+      </c>
+      <c r="D405" t="n">
+        <v>-0.05083441266540945</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>95.93973487767181</v>
+      </c>
+      <c r="C406" t="n">
+        <v>96.05242329277341</v>
+      </c>
+      <c r="D406" t="n">
+        <v>-0.1126884151016014</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>95.94625365373857</v>
+      </c>
+      <c r="C407" t="n">
+        <v>95.98051833302719</v>
+      </c>
+      <c r="D407" t="n">
+        <v>-0.03426467928862564</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>95.94963140271605</v>
+      </c>
+      <c r="C408" t="n">
+        <v>95.95755387949924</v>
+      </c>
+      <c r="D408" t="n">
+        <v>-0.007922476783193133</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>96.02303186057898</v>
+      </c>
+      <c r="C409" t="n">
+        <v>95.99295907817451</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.0300727824044742</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>96.03726694838997</v>
+      </c>
+      <c r="C410" t="n">
+        <v>96.07074716694277</v>
+      </c>
+      <c r="D410" t="n">
+        <v>-0.03348021855279626</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>96.04692340135887</v>
+      </c>
+      <c r="C411" t="n">
+        <v>96.08102142974334</v>
+      </c>
+      <c r="D411" t="n">
+        <v>-0.03409802838447717</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>96.05294414667905</v>
+      </c>
+      <c r="C412" t="n">
+        <v>96.05502406615351</v>
+      </c>
+      <c r="D412" t="n">
+        <v>-0.002079919474454073</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>96.05921374812662</v>
+      </c>
+      <c r="C413" t="n">
+        <v>96.07763120536663</v>
+      </c>
+      <c r="D413" t="n">
+        <v>-0.01841745724000532</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>96.07164765453251</v>
+      </c>
+      <c r="C414" t="n">
+        <v>96.10362308103251</v>
+      </c>
+      <c r="D414" t="n">
+        <v>-0.03197542649999718</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>96.13112494581321</v>
+      </c>
+      <c r="C415" t="n">
+        <v>96.10318160252194</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.02794334329126968</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>96.16918245670429</v>
+      </c>
+      <c r="C416" t="n">
+        <v>96.00186395765861</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.1673184990456775</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>96.32015438269984</v>
+      </c>
+      <c r="C417" t="n">
+        <v>96.03859301997021</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0.2815613627296329</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>97.13379259331714</v>
+      </c>
+      <c r="C418" t="n">
+        <v>97.16160220114843</v>
+      </c>
+      <c r="D418" t="n">
+        <v>-0.02780960783128705</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>97.13570749225882</v>
+      </c>
+      <c r="C419" t="n">
+        <v>97.1864843322041</v>
+      </c>
+      <c r="D419" t="n">
+        <v>-0.0507768399452857</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>97.15322549315542</v>
+      </c>
+      <c r="C420" t="n">
+        <v>97.32246596793539</v>
+      </c>
+      <c r="D420" t="n">
+        <v>-0.1692404747799685</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>97.15846942181214</v>
+      </c>
+      <c r="C421" t="n">
+        <v>97.2547127315957</v>
+      </c>
+      <c r="D421" t="n">
+        <v>-0.09624330978355999</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>97.1919370429115</v>
+      </c>
+      <c r="C422" t="n">
+        <v>97.25114780660429</v>
+      </c>
+      <c r="D422" t="n">
+        <v>-0.05921076369278921</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>97.22939510923561</v>
+      </c>
+      <c r="C423" t="n">
+        <v>97.31484964828527</v>
+      </c>
+      <c r="D423" t="n">
+        <v>-0.08545453904966394</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>97.25151343206556</v>
+      </c>
+      <c r="C424" t="n">
+        <v>97.35002086604977</v>
+      </c>
+      <c r="D424" t="n">
+        <v>-0.09850743398421002</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>97.25576096929605</v>
+      </c>
+      <c r="C425" t="n">
+        <v>97.31485757757345</v>
+      </c>
+      <c r="D425" t="n">
+        <v>-0.05909660827740026</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>97.27265781963457</v>
+      </c>
+      <c r="C426" t="n">
+        <v>97.30793481170893</v>
+      </c>
+      <c r="D426" t="n">
+        <v>-0.0352769920743583</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>97.28498030790949</v>
+      </c>
+      <c r="C427" t="n">
+        <v>97.3195975992561</v>
+      </c>
+      <c r="D427" t="n">
+        <v>-0.03461729134660629</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>97.29384947747087</v>
+      </c>
+      <c r="C428" t="n">
+        <v>97.32954418131953</v>
+      </c>
+      <c r="D428" t="n">
+        <v>-0.03569470384866236</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>97.36045305234285</v>
+      </c>
+      <c r="C429" t="n">
+        <v>97.28251591899749</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0.07793713334535823</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>97.39927481876131</v>
+      </c>
+      <c r="C430" t="n">
+        <v>97.48708376905199</v>
+      </c>
+      <c r="D430" t="n">
+        <v>-0.08780895029067892</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>97.43145065456184</v>
+      </c>
+      <c r="C431" t="n">
+        <v>97.20784942319122</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0.2236012313706226</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>97.43553232538497</v>
+      </c>
+      <c r="C432" t="n">
+        <v>97.51112056682464</v>
+      </c>
+      <c r="D432" t="n">
+        <v>-0.07558824143967513</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>97.45002025549179</v>
+      </c>
+      <c r="C433" t="n">
+        <v>97.51529291541667</v>
+      </c>
+      <c r="D433" t="n">
+        <v>-0.0652726599248723</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>97.45969586769185</v>
+      </c>
+      <c r="C434" t="n">
+        <v>97.47147661767164</v>
+      </c>
+      <c r="D434" t="n">
+        <v>-0.01178074997979195</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>97.45981141410751</v>
+      </c>
+      <c r="C435" t="n">
+        <v>97.49762043884121</v>
+      </c>
+      <c r="D435" t="n">
+        <v>-0.03780902473370418</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>97.50503576737421</v>
+      </c>
+      <c r="C436" t="n">
+        <v>97.51161362105796</v>
+      </c>
+      <c r="D436" t="n">
+        <v>-0.0065778536837513</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>97.50914307281546</v>
+      </c>
+      <c r="C437" t="n">
+        <v>97.56187314060018</v>
+      </c>
+      <c r="D437" t="n">
+        <v>-0.05273006778472222</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>97.51437655424054</v>
+      </c>
+      <c r="C438" t="n">
+        <v>97.58275856472707</v>
+      </c>
+      <c r="D438" t="n">
+        <v>-0.06838201048653048</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>97.5452856876025</v>
+      </c>
+      <c r="C439" t="n">
+        <v>97.56358962708477</v>
+      </c>
+      <c r="D439" t="n">
+        <v>-0.01830393948226572</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>97.57746530335713</v>
+      </c>
+      <c r="C440" t="n">
+        <v>97.35108290314125</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.2263824002158827</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>97.69966648467802</v>
+      </c>
+      <c r="C441" t="n">
+        <v>97.75268740662911</v>
+      </c>
+      <c r="D441" t="n">
+        <v>-0.05302092195108798</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>97.71141806322814</v>
+      </c>
+      <c r="C442" t="n">
+        <v>97.73404143500679</v>
+      </c>
+      <c r="D442" t="n">
+        <v>-0.02262337177864993</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>97.72391607651245</v>
+      </c>
+      <c r="C443" t="n">
+        <v>97.82929772560774</v>
+      </c>
+      <c r="D443" t="n">
+        <v>-0.1053816490952926</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>97.73017584587205</v>
+      </c>
+      <c r="C444" t="n">
+        <v>97.84645568556665</v>
+      </c>
+      <c r="D444" t="n">
+        <v>-0.1162798396945988</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>97.73802647321354</v>
+      </c>
+      <c r="C445" t="n">
+        <v>97.91029474995183</v>
+      </c>
+      <c r="D445" t="n">
+        <v>-0.1722682767382935</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>97.75644021436958</v>
+      </c>
+      <c r="C446" t="n">
+        <v>97.83260896675581</v>
+      </c>
+      <c r="D446" t="n">
+        <v>-0.07616875238623777</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>97.76395881494668</v>
+      </c>
+      <c r="C447" t="n">
+        <v>97.82979850699199</v>
+      </c>
+      <c r="D447" t="n">
+        <v>-0.0658396920453157</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>97.76440178955268</v>
+      </c>
+      <c r="C448" t="n">
+        <v>97.83371057514965</v>
+      </c>
+      <c r="D448" t="n">
+        <v>-0.06930878559697362</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>97.78544593599061</v>
+      </c>
+      <c r="C449" t="n">
+        <v>97.84950507441566</v>
+      </c>
+      <c r="D449" t="n">
+        <v>-0.06405913842505129</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>97.82035370940932</v>
+      </c>
+      <c r="C450" t="n">
+        <v>97.90805866525109</v>
+      </c>
+      <c r="D450" t="n">
+        <v>-0.0877049558417724</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>97.82902319163195</v>
+      </c>
+      <c r="C451" t="n">
+        <v>97.8297977234422</v>
+      </c>
+      <c r="D451" t="n">
+        <v>-0.0007745318102507781</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>97.83849001956692</v>
+      </c>
+      <c r="C452" t="n">
+        <v>97.77121662539466</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.06727339417226119</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>97.83870294192175</v>
+      </c>
+      <c r="C453" t="n">
+        <v>97.90228562163273</v>
+      </c>
+      <c r="D453" t="n">
+        <v>-0.06358267971097575</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>97.92742785305825</v>
+      </c>
+      <c r="C454" t="n">
+        <v>98.10251047071583</v>
+      </c>
+      <c r="D454" t="n">
+        <v>-0.1750826176575799</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>97.9369043004483</v>
+      </c>
+      <c r="C455" t="n">
+        <v>98.06733299409781</v>
+      </c>
+      <c r="D455" t="n">
+        <v>-0.130428693649506</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>97.97419953847766</v>
+      </c>
+      <c r="C456" t="n">
+        <v>98.0109200593451</v>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.03672052086743349</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>97.9842223821575</v>
+      </c>
+      <c r="C457" t="n">
+        <v>98.08902748622575</v>
+      </c>
+      <c r="D457" t="n">
+        <v>-0.1048051040682481</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>98.04853173428917</v>
+      </c>
+      <c r="C458" t="n">
+        <v>98.07683238777362</v>
+      </c>
+      <c r="D458" t="n">
+        <v>-0.02830065348445032</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>98.09288938690948</v>
+      </c>
+      <c r="C459" t="n">
+        <v>98.09478864993487</v>
+      </c>
+      <c r="D459" t="n">
+        <v>-0.001899263025393338</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>98.31488469270631</v>
+      </c>
+      <c r="C460" t="n">
+        <v>97.88287574031988</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.4320089523864397</v>
       </c>
     </row>
   </sheetData>
